--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ch1011431\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ch1011431\Desktop\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Nr.</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>&lt;Projektname&gt;</t>
-  </si>
-  <si>
     <t>&lt;Teammitglied 2&gt;</t>
   </si>
   <si>
@@ -251,22 +248,28 @@
     <t>Laufendes Cluster REQ001</t>
   </si>
   <si>
-    <t>Laufende Webapplikation REQ003</t>
-  </si>
-  <si>
-    <t>Cluster testen</t>
-  </si>
-  <si>
     <t>Planung</t>
   </si>
   <si>
-    <t>Laufender Node JS Server REQ002</t>
+    <t>Node JS on Raspberry Pi Cluster</t>
   </si>
   <si>
-    <t>LCD Statusbildschirm REQ004</t>
+    <t>Cluster mit Netzwerk verbinden REQ002</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Node JS installieren und Kommandozeile REQ003 und REQ004</t>
+  </si>
+  <si>
+    <t>IP REQ005</t>
+  </si>
+  <si>
+    <t>Stabile Scripts REQ006</t>
+  </si>
+  <si>
+    <t>Datenübertragung per USB REQ007</t>
+  </si>
+  <si>
+    <t>NTH001, NTH002; NTH003 oder Pufferteit</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1672,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2245,6 +2248,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="5" builtinId="29"/>
@@ -2297,6 +2303,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2460,11 +2467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170137672"/>
-        <c:axId val="170138064"/>
+        <c:axId val="198631264"/>
+        <c:axId val="198631656"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="170137672"/>
+        <c:axId val="198631264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,14 +2481,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170138064"/>
+        <c:crossAx val="198631656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="170138064"/>
+        <c:axId val="198631656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,13 +2499,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170137672"/>
+        <c:crossAx val="198631264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2582,19 +2590,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2656,16 +2664,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2691,11 +2699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170138848"/>
-        <c:axId val="170139240"/>
+        <c:axId val="198632440"/>
+        <c:axId val="199840712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170138848"/>
+        <c:axId val="198632440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,7 +2713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170139240"/>
+        <c:crossAx val="199840712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2713,7 +2721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170139240"/>
+        <c:axId val="199840712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2724,13 +2732,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170138848"/>
+        <c:crossAx val="198632440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3165,11 +3174,11 @@
   </sheetPr>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3199,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="188" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B1" s="188"/>
       <c r="C1" s="188"/>
@@ -3287,13 +3296,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>21</v>
@@ -3352,15 +3361,15 @@
         <v>10</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="115">
         <f>SUM(C6:C10)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="116">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="117"/>
       <c r="F5" s="118"/>
@@ -3438,11 +3447,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="48">
-        <v>2</v>
-      </c>
-      <c r="D7" s="38" t="str">
-        <f t="shared" ref="D7:D10" si="0">IF(SUM(K7:AD7)=0," ",SUM(K7:AD7))</f>
-        <v xml:space="preserve"> </v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="38">
+        <v>3</v>
       </c>
       <c r="E7" s="47">
         <v>1</v>
@@ -3484,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:D10" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="47">
@@ -3529,9 +3537,8 @@
       <c r="C9" s="48">
         <v>1</v>
       </c>
-      <c r="D9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D9" s="38">
+        <v>0.5</v>
       </c>
       <c r="E9" s="47">
         <v>1</v>
@@ -3567,10 +3574,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3614,7 +3621,7 @@
       </c>
       <c r="C11" s="126">
         <f>SUM(C12:C14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="115">
         <f>SUM(D12:D14)</f>
@@ -3652,10 +3659,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="72" t="str">
         <f>IF(SUM(K12:AD12)=0," ",SUM(K12:AD12))</f>
@@ -3670,7 +3677,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="105"/>
       <c r="K12" s="183"/>
-      <c r="L12" s="74"/>
+      <c r="L12" s="183"/>
       <c r="M12" s="51"/>
       <c r="N12" s="42"/>
       <c r="O12" s="156"/>
@@ -3695,10 +3702,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="72" t="str">
         <f t="shared" ref="D13:D14" si="1">IF(SUM(K13:AD13)=0," ",SUM(K13:AD13))</f>
@@ -3779,11 +3786,11 @@
       </c>
       <c r="C15" s="115">
         <f>SUM(C16:C21)</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D15" s="116">
         <f>SUM(D16:D21)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="117"/>
       <c r="F15" s="118"/>
@@ -3817,14 +3824,13 @@
         <v>31</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="37">
-        <v>32</v>
-      </c>
-      <c r="D16" s="72" t="str">
-        <f>IF(SUM(K16:AD16)=0," ",SUM(K16:AD16))</f>
-        <v xml:space="preserve"> </v>
+        <v>25</v>
+      </c>
+      <c r="D16" s="72">
+        <v>2</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -3840,8 +3846,8 @@
       <c r="N16" s="183"/>
       <c r="O16" s="183"/>
       <c r="P16" s="183"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="74"/>
+      <c r="Q16" s="183"/>
+      <c r="R16" s="183"/>
       <c r="S16" s="41"/>
       <c r="T16" s="172"/>
       <c r="U16" s="73"/>
@@ -3860,12 +3866,14 @@
         <v>32</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="37">
-        <v>16</v>
-      </c>
-      <c r="D17" s="72"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="72">
+        <v>3</v>
+      </c>
       <c r="E17" s="36">
         <v>1</v>
       </c>
@@ -3876,12 +3884,12 @@
       <c r="J17" s="105"/>
       <c r="K17" s="161"/>
       <c r="L17" s="74"/>
-      <c r="M17" s="43"/>
+      <c r="M17" s="183"/>
       <c r="N17" s="42"/>
       <c r="O17" s="156"/>
       <c r="P17" s="45"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="183"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
       <c r="S17" s="41"/>
       <c r="T17" s="172"/>
       <c r="U17" s="73"/>
@@ -3900,10 +3908,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="36">
@@ -3919,13 +3927,13 @@
       <c r="M18" s="43"/>
       <c r="N18" s="42"/>
       <c r="O18" s="156"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="172"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
       <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
+      <c r="V18" s="197"/>
       <c r="W18" s="129"/>
       <c r="X18" s="42"/>
       <c r="Y18" s="37"/>
@@ -3940,14 +3948,14 @@
         <v>34</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C19" s="37">
+        <v>4</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="73"/>
@@ -3960,12 +3968,12 @@
       <c r="N19" s="42"/>
       <c r="O19" s="156"/>
       <c r="P19" s="45"/>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="183"/>
       <c r="R19" s="74"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="197"/>
       <c r="W19" s="129"/>
       <c r="X19" s="42"/>
       <c r="Y19" s="37"/>
@@ -3979,10 +3987,16 @@
       <c r="A20" s="86">
         <v>35</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="37">
+        <v>2</v>
+      </c>
       <c r="D20" s="72"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="36">
+        <v>1</v>
+      </c>
       <c r="F20" s="37"/>
       <c r="G20" s="73"/>
       <c r="H20" s="39"/>
@@ -3994,7 +4008,7 @@
       <c r="N20" s="42"/>
       <c r="O20" s="156"/>
       <c r="P20" s="45"/>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="183"/>
       <c r="R20" s="74"/>
       <c r="S20" s="41"/>
       <c r="T20" s="172"/>
@@ -4013,13 +4027,19 @@
       <c r="A21" s="86">
         <v>36</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="48">
+        <v>6</v>
+      </c>
       <c r="D21" s="38" t="str">
         <f>IF(SUM(K21:AD21)=0," ",SUM(K21:AD21))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="47">
+        <v>1</v>
+      </c>
       <c r="F21" s="37"/>
       <c r="G21" s="73"/>
       <c r="H21" s="39"/>
@@ -4031,8 +4051,8 @@
       <c r="N21" s="50"/>
       <c r="O21" s="156"/>
       <c r="P21" s="53"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="74"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="183"/>
       <c r="S21" s="49"/>
       <c r="T21" s="173"/>
       <c r="U21" s="57"/>
@@ -4055,11 +4075,11 @@
       </c>
       <c r="C22" s="115">
         <f>SUM(C23:C26)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D22" s="116">
         <f>SUM(D23:D26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="122"/>
       <c r="F22" s="118"/>
@@ -4096,7 +4116,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="72" t="str">
         <f>IF(SUM(K23:AD23)=0," ",SUM(K23:AD23))</f>
@@ -4136,14 +4156,13 @@
         <v>31</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C24" s="37">
-        <v>1</v>
-      </c>
-      <c r="D24" s="72" t="str">
-        <f>IF(SUM(K24:AD24)=0," ",SUM(K24:AD24))</f>
-        <v xml:space="preserve"> </v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="72">
+        <v>2</v>
       </c>
       <c r="E24" s="36">
         <v>1</v>
@@ -4182,7 +4201,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="72" t="str">
         <f>IF(SUM(K25:AD25)=0," ",SUM(K25:AD25))</f>
@@ -4225,7 +4244,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D26" s="68" t="str">
         <f>IF(SUM(K26:AD26)=0," ",SUM(K26:AD26))</f>
@@ -4269,7 +4288,7 @@
       </c>
       <c r="C27" s="115">
         <f>SUM(C28)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D27" s="116">
         <f>SUM(D28)</f>
@@ -4306,13 +4325,19 @@
       <c r="A28" s="87">
         <v>51</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="69">
+        <v>12</v>
+      </c>
       <c r="D28" s="79" t="str">
         <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="76"/>
+      <c r="E28" s="76">
+        <v>2</v>
+      </c>
       <c r="F28" s="69"/>
       <c r="G28" s="80"/>
       <c r="H28" s="70"/>
@@ -4386,7 +4411,7 @@
         <v>61</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="72" t="str">
@@ -4465,8 +4490,8 @@
         <v>6</v>
       </c>
       <c r="C32" s="131">
-        <f>SUM(C5+C11+C15+C22+C29)</f>
-        <v>71</v>
+        <f>SUM(C5+C11+C15+C22+C27)</f>
+        <v>88</v>
       </c>
       <c r="D32" s="131" t="str">
         <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
@@ -4675,7 +4700,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5026,11 +5051,11 @@
       <c r="B28" s="191"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5040,7 +5065,7 @@
       <c r="B29" s="196"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
@@ -5054,11 +5079,11 @@
       <c r="B30" s="191"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5068,11 +5093,11 @@
       <c r="B31" s="196"/>
       <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C22</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5">
         <f>'IPA Zeitplanung'!D22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5082,7 +5107,7 @@
       <c r="B32" s="191"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C27</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D32" s="5">
         <f>SUM('IPA Zeitplanung'!D27)</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -251,9 +251,6 @@
     <t>Planung</t>
   </si>
   <si>
-    <t>Node JS on Raspberry Pi Cluster</t>
-  </si>
-  <si>
     <t>Cluster mit Netzwerk verbinden REQ002</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>NTH001, NTH002; NTH003 oder Pufferteit</t>
+  </si>
+  <si>
+    <t>Node JS Raspberry Pi Cluster</t>
   </si>
 </sst>
 </file>
@@ -2213,6 +2213,9 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2248,9 +2251,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="5" builtinId="29"/>
@@ -2303,7 +2303,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2467,11 +2466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198631264"/>
-        <c:axId val="198631656"/>
+        <c:axId val="201255880"/>
+        <c:axId val="201256272"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="198631264"/>
+        <c:axId val="201255880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,14 +2480,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198631656"/>
+        <c:crossAx val="201256272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="198631656"/>
+        <c:axId val="201256272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,14 +2498,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198631264"/>
+        <c:crossAx val="201255880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2699,11 +2697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198632440"/>
-        <c:axId val="199840712"/>
+        <c:axId val="201257056"/>
+        <c:axId val="201257448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198632440"/>
+        <c:axId val="201257056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,7 +2711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199840712"/>
+        <c:crossAx val="201257448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2721,7 +2719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199840712"/>
+        <c:axId val="201257448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,14 +2730,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198632440"/>
+        <c:crossAx val="201257056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3178,7 +3175,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" sqref="A1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3198,38 +3195,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
+      <c r="A1" s="189" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
     </row>
     <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -3246,10 +3243,10 @@
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84"/>
       <c r="B3" s="88"/>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="190"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="26"/>
@@ -3866,7 +3863,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="37">
         <v>8</v>
@@ -3908,7 +3905,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="37">
         <v>3</v>
@@ -3933,7 +3930,7 @@
       <c r="S18" s="73"/>
       <c r="T18" s="73"/>
       <c r="U18" s="73"/>
-      <c r="V18" s="197"/>
+      <c r="V18" s="184"/>
       <c r="W18" s="129"/>
       <c r="X18" s="42"/>
       <c r="Y18" s="37"/>
@@ -3948,7 +3945,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="37">
         <v>4</v>
@@ -3973,7 +3970,7 @@
       <c r="S19" s="73"/>
       <c r="T19" s="73"/>
       <c r="U19" s="73"/>
-      <c r="V19" s="197"/>
+      <c r="V19" s="184"/>
       <c r="W19" s="129"/>
       <c r="X19" s="42"/>
       <c r="Y19" s="37"/>
@@ -3988,7 +3985,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="37">
         <v>2</v>
@@ -4028,7 +4025,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="48">
         <v>6</v>
@@ -4326,7 +4323,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="69">
         <v>12</v>
@@ -4541,15 +4538,15 @@
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="137"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="138"/>
@@ -4564,26 +4561,26 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="185"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="186"/>
-      <c r="S34" s="186"/>
-      <c r="T34" s="186"/>
-      <c r="U34" s="186"/>
-      <c r="V34" s="186"/>
-      <c r="W34" s="186"/>
-      <c r="X34" s="186"/>
-      <c r="Y34" s="186"/>
-      <c r="Z34" s="186"/>
-      <c r="AA34" s="186"/>
-      <c r="AB34" s="186"/>
-      <c r="AC34" s="186"/>
-      <c r="AD34" s="186"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="187"/>
+      <c r="O34" s="187"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="187"/>
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
+      <c r="T34" s="187"/>
+      <c r="U34" s="187"/>
+      <c r="V34" s="187"/>
+      <c r="W34" s="187"/>
+      <c r="X34" s="187"/>
+      <c r="Y34" s="187"/>
+      <c r="Z34" s="187"/>
+      <c r="AA34" s="187"/>
+      <c r="AB34" s="187"/>
+      <c r="AC34" s="187"/>
+      <c r="AD34" s="187"/>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
@@ -4596,26 +4593,26 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="184"/>
-      <c r="V35" s="184"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="184"/>
-      <c r="Y35" s="184"/>
-      <c r="Z35" s="184"/>
-      <c r="AA35" s="184"/>
-      <c r="AB35" s="184"/>
-      <c r="AC35" s="184"/>
-      <c r="AD35" s="184"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="185"/>
+      <c r="N35" s="185"/>
+      <c r="O35" s="185"/>
+      <c r="P35" s="185"/>
+      <c r="Q35" s="185"/>
+      <c r="R35" s="185"/>
+      <c r="S35" s="185"/>
+      <c r="T35" s="185"/>
+      <c r="U35" s="185"/>
+      <c r="V35" s="185"/>
+      <c r="W35" s="185"/>
+      <c r="X35" s="185"/>
+      <c r="Y35" s="185"/>
+      <c r="Z35" s="185"/>
+      <c r="AA35" s="185"/>
+      <c r="AB35" s="185"/>
+      <c r="AC35" s="185"/>
+      <c r="AD35" s="185"/>
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -4628,26 +4625,26 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="184"/>
-      <c r="V36" s="184"/>
-      <c r="W36" s="184"/>
-      <c r="X36" s="184"/>
-      <c r="Y36" s="184"/>
-      <c r="Z36" s="184"/>
-      <c r="AA36" s="184"/>
-      <c r="AB36" s="184"/>
-      <c r="AC36" s="184"/>
-      <c r="AD36" s="184"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="185"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="185"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
+      <c r="S36" s="185"/>
+      <c r="T36" s="185"/>
+      <c r="U36" s="185"/>
+      <c r="V36" s="185"/>
+      <c r="W36" s="185"/>
+      <c r="X36" s="185"/>
+      <c r="Y36" s="185"/>
+      <c r="Z36" s="185"/>
+      <c r="AA36" s="185"/>
+      <c r="AB36" s="185"/>
+      <c r="AC36" s="185"/>
+      <c r="AD36" s="185"/>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
@@ -4713,21 +4710,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="192"/>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
+      <c r="A1" s="193"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5033,10 +5030,10 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="193" t="s">
+      <c r="A27" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="194"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
@@ -5045,10 +5042,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="190" t="s">
+      <c r="A28" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="191"/>
+      <c r="B28" s="192"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>11</v>
@@ -5059,10 +5056,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="196"/>
+      <c r="B29" s="197"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>2</v>
@@ -5073,10 +5070,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="191"/>
+      <c r="B30" s="192"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>48</v>
@@ -5087,10 +5084,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="195" t="s">
+      <c r="A31" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="196"/>
+      <c r="B31" s="197"/>
       <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C22</f>
         <v>15</v>
@@ -5101,10 +5098,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="191"/>
+      <c r="B32" s="192"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C27</f>
         <v>12</v>
@@ -5115,10 +5112,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="190" t="s">
+      <c r="A33" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="191"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="5">
         <f>'IPA Zeitplanung'!C29</f>
         <v>0</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ch1011431\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ch1011431\Desktop\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Nr.</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>&lt;Projektname&gt;</t>
-  </si>
-  <si>
     <t>&lt;Teammitglied 2&gt;</t>
   </si>
   <si>
@@ -251,22 +248,28 @@
     <t>Laufendes Cluster REQ001</t>
   </si>
   <si>
-    <t>Laufende Webapplikation REQ003</t>
-  </si>
-  <si>
-    <t>Cluster testen</t>
-  </si>
-  <si>
     <t>Planung</t>
   </si>
   <si>
-    <t>Laufender Node JS Server REQ002</t>
+    <t>Cluster mit Netzwerk verbinden REQ002</t>
   </si>
   <si>
-    <t>LCD Statusbildschirm REQ004</t>
+    <t>Node JS installieren und Kommandozeile REQ003 und REQ004</t>
   </si>
   <si>
-    <t>?</t>
+    <t>IP REQ005</t>
+  </si>
+  <si>
+    <t>Stabile Scripts REQ006</t>
+  </si>
+  <si>
+    <t>Datenübertragung per USB REQ007</t>
+  </si>
+  <si>
+    <t>NTH001, NTH002; NTH003 oder Pufferteit</t>
+  </si>
+  <si>
+    <t>Node JS Raspberry Pi Cluster</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1672,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2208,6 +2211,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2460,11 +2466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170137672"/>
-        <c:axId val="170138064"/>
+        <c:axId val="201255880"/>
+        <c:axId val="201256272"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="170137672"/>
+        <c:axId val="201255880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,14 +2480,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170138064"/>
+        <c:crossAx val="201256272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="170138064"/>
+        <c:axId val="201256272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +2498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170137672"/>
+        <c:crossAx val="201255880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2582,19 +2588,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2656,16 +2662,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2691,11 +2697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170138848"/>
-        <c:axId val="170139240"/>
+        <c:axId val="201257056"/>
+        <c:axId val="201257448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170138848"/>
+        <c:axId val="201257056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,7 +2711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170139240"/>
+        <c:crossAx val="201257448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2713,7 +2719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170139240"/>
+        <c:axId val="201257448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2724,7 +2730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170138848"/>
+        <c:crossAx val="201257056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3165,11 +3171,11 @@
   </sheetPr>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" sqref="A1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3189,38 +3195,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
+      <c r="A1" s="189" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
     </row>
     <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -3237,10 +3243,10 @@
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84"/>
       <c r="B3" s="88"/>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="190"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="26"/>
@@ -3287,13 +3293,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>21</v>
@@ -3352,15 +3358,15 @@
         <v>10</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="115">
         <f>SUM(C6:C10)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="116">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="117"/>
       <c r="F5" s="118"/>
@@ -3438,11 +3444,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="48">
-        <v>2</v>
-      </c>
-      <c r="D7" s="38" t="str">
-        <f t="shared" ref="D7:D10" si="0">IF(SUM(K7:AD7)=0," ",SUM(K7:AD7))</f>
-        <v xml:space="preserve"> </v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="38">
+        <v>3</v>
       </c>
       <c r="E7" s="47">
         <v>1</v>
@@ -3484,7 +3489,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:D10" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="47">
@@ -3529,9 +3534,8 @@
       <c r="C9" s="48">
         <v>1</v>
       </c>
-      <c r="D9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D9" s="38">
+        <v>0.5</v>
       </c>
       <c r="E9" s="47">
         <v>1</v>
@@ -3567,10 +3571,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3614,7 +3618,7 @@
       </c>
       <c r="C11" s="126">
         <f>SUM(C12:C14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="115">
         <f>SUM(D12:D14)</f>
@@ -3652,10 +3656,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="72" t="str">
         <f>IF(SUM(K12:AD12)=0," ",SUM(K12:AD12))</f>
@@ -3670,7 +3674,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="105"/>
       <c r="K12" s="183"/>
-      <c r="L12" s="74"/>
+      <c r="L12" s="183"/>
       <c r="M12" s="51"/>
       <c r="N12" s="42"/>
       <c r="O12" s="156"/>
@@ -3695,10 +3699,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="72" t="str">
         <f t="shared" ref="D13:D14" si="1">IF(SUM(K13:AD13)=0," ",SUM(K13:AD13))</f>
@@ -3779,11 +3783,11 @@
       </c>
       <c r="C15" s="115">
         <f>SUM(C16:C21)</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D15" s="116">
         <f>SUM(D16:D21)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="117"/>
       <c r="F15" s="118"/>
@@ -3817,14 +3821,13 @@
         <v>31</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="37">
-        <v>32</v>
-      </c>
-      <c r="D16" s="72" t="str">
-        <f>IF(SUM(K16:AD16)=0," ",SUM(K16:AD16))</f>
-        <v xml:space="preserve"> </v>
+        <v>25</v>
+      </c>
+      <c r="D16" s="72">
+        <v>2</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -3840,8 +3843,8 @@
       <c r="N16" s="183"/>
       <c r="O16" s="183"/>
       <c r="P16" s="183"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="74"/>
+      <c r="Q16" s="183"/>
+      <c r="R16" s="183"/>
       <c r="S16" s="41"/>
       <c r="T16" s="172"/>
       <c r="U16" s="73"/>
@@ -3860,12 +3863,14 @@
         <v>32</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="37">
-        <v>16</v>
-      </c>
-      <c r="D17" s="72"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="72">
+        <v>3</v>
+      </c>
       <c r="E17" s="36">
         <v>1</v>
       </c>
@@ -3876,12 +3881,12 @@
       <c r="J17" s="105"/>
       <c r="K17" s="161"/>
       <c r="L17" s="74"/>
-      <c r="M17" s="43"/>
+      <c r="M17" s="183"/>
       <c r="N17" s="42"/>
       <c r="O17" s="156"/>
       <c r="P17" s="45"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="183"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
       <c r="S17" s="41"/>
       <c r="T17" s="172"/>
       <c r="U17" s="73"/>
@@ -3900,10 +3905,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="37">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="36">
@@ -3919,13 +3924,13 @@
       <c r="M18" s="43"/>
       <c r="N18" s="42"/>
       <c r="O18" s="156"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="172"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
       <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
+      <c r="V18" s="184"/>
       <c r="W18" s="129"/>
       <c r="X18" s="42"/>
       <c r="Y18" s="37"/>
@@ -3940,14 +3945,14 @@
         <v>34</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="37">
+        <v>4</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="73"/>
@@ -3960,12 +3965,12 @@
       <c r="N19" s="42"/>
       <c r="O19" s="156"/>
       <c r="P19" s="45"/>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="183"/>
       <c r="R19" s="74"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="184"/>
       <c r="W19" s="129"/>
       <c r="X19" s="42"/>
       <c r="Y19" s="37"/>
@@ -3979,10 +3984,16 @@
       <c r="A20" s="86">
         <v>35</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="37">
+        <v>2</v>
+      </c>
       <c r="D20" s="72"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="36">
+        <v>1</v>
+      </c>
       <c r="F20" s="37"/>
       <c r="G20" s="73"/>
       <c r="H20" s="39"/>
@@ -3994,7 +4005,7 @@
       <c r="N20" s="42"/>
       <c r="O20" s="156"/>
       <c r="P20" s="45"/>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="183"/>
       <c r="R20" s="74"/>
       <c r="S20" s="41"/>
       <c r="T20" s="172"/>
@@ -4013,13 +4024,19 @@
       <c r="A21" s="86">
         <v>36</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="48">
+        <v>6</v>
+      </c>
       <c r="D21" s="38" t="str">
         <f>IF(SUM(K21:AD21)=0," ",SUM(K21:AD21))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="47">
+        <v>1</v>
+      </c>
       <c r="F21" s="37"/>
       <c r="G21" s="73"/>
       <c r="H21" s="39"/>
@@ -4031,8 +4048,8 @@
       <c r="N21" s="50"/>
       <c r="O21" s="156"/>
       <c r="P21" s="53"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="74"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="183"/>
       <c r="S21" s="49"/>
       <c r="T21" s="173"/>
       <c r="U21" s="57"/>
@@ -4055,11 +4072,11 @@
       </c>
       <c r="C22" s="115">
         <f>SUM(C23:C26)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D22" s="116">
         <f>SUM(D23:D26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="122"/>
       <c r="F22" s="118"/>
@@ -4096,7 +4113,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="72" t="str">
         <f>IF(SUM(K23:AD23)=0," ",SUM(K23:AD23))</f>
@@ -4136,14 +4153,13 @@
         <v>31</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C24" s="37">
-        <v>1</v>
-      </c>
-      <c r="D24" s="72" t="str">
-        <f>IF(SUM(K24:AD24)=0," ",SUM(K24:AD24))</f>
-        <v xml:space="preserve"> </v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="72">
+        <v>2</v>
       </c>
       <c r="E24" s="36">
         <v>1</v>
@@ -4182,7 +4198,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="72" t="str">
         <f>IF(SUM(K25:AD25)=0," ",SUM(K25:AD25))</f>
@@ -4225,7 +4241,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D26" s="68" t="str">
         <f>IF(SUM(K26:AD26)=0," ",SUM(K26:AD26))</f>
@@ -4269,7 +4285,7 @@
       </c>
       <c r="C27" s="115">
         <f>SUM(C28)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D27" s="116">
         <f>SUM(D28)</f>
@@ -4306,13 +4322,19 @@
       <c r="A28" s="87">
         <v>51</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="69">
+        <v>12</v>
+      </c>
       <c r="D28" s="79" t="str">
         <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="76"/>
+      <c r="E28" s="76">
+        <v>2</v>
+      </c>
       <c r="F28" s="69"/>
       <c r="G28" s="80"/>
       <c r="H28" s="70"/>
@@ -4386,7 +4408,7 @@
         <v>61</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="72" t="str">
@@ -4465,8 +4487,8 @@
         <v>6</v>
       </c>
       <c r="C32" s="131">
-        <f>SUM(C5+C11+C15+C22+C29)</f>
-        <v>71</v>
+        <f>SUM(C5+C11+C15+C22+C27)</f>
+        <v>88</v>
       </c>
       <c r="D32" s="131" t="str">
         <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
@@ -4516,15 +4538,15 @@
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="137"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="138"/>
@@ -4539,26 +4561,26 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="185"/>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="186"/>
-      <c r="S34" s="186"/>
-      <c r="T34" s="186"/>
-      <c r="U34" s="186"/>
-      <c r="V34" s="186"/>
-      <c r="W34" s="186"/>
-      <c r="X34" s="186"/>
-      <c r="Y34" s="186"/>
-      <c r="Z34" s="186"/>
-      <c r="AA34" s="186"/>
-      <c r="AB34" s="186"/>
-      <c r="AC34" s="186"/>
-      <c r="AD34" s="186"/>
+      <c r="K34" s="186"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="187"/>
+      <c r="O34" s="187"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="187"/>
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
+      <c r="T34" s="187"/>
+      <c r="U34" s="187"/>
+      <c r="V34" s="187"/>
+      <c r="W34" s="187"/>
+      <c r="X34" s="187"/>
+      <c r="Y34" s="187"/>
+      <c r="Z34" s="187"/>
+      <c r="AA34" s="187"/>
+      <c r="AB34" s="187"/>
+      <c r="AC34" s="187"/>
+      <c r="AD34" s="187"/>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
@@ -4571,26 +4593,26 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="184"/>
-      <c r="V35" s="184"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="184"/>
-      <c r="Y35" s="184"/>
-      <c r="Z35" s="184"/>
-      <c r="AA35" s="184"/>
-      <c r="AB35" s="184"/>
-      <c r="AC35" s="184"/>
-      <c r="AD35" s="184"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="185"/>
+      <c r="N35" s="185"/>
+      <c r="O35" s="185"/>
+      <c r="P35" s="185"/>
+      <c r="Q35" s="185"/>
+      <c r="R35" s="185"/>
+      <c r="S35" s="185"/>
+      <c r="T35" s="185"/>
+      <c r="U35" s="185"/>
+      <c r="V35" s="185"/>
+      <c r="W35" s="185"/>
+      <c r="X35" s="185"/>
+      <c r="Y35" s="185"/>
+      <c r="Z35" s="185"/>
+      <c r="AA35" s="185"/>
+      <c r="AB35" s="185"/>
+      <c r="AC35" s="185"/>
+      <c r="AD35" s="185"/>
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -4603,26 +4625,26 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="184"/>
-      <c r="V36" s="184"/>
-      <c r="W36" s="184"/>
-      <c r="X36" s="184"/>
-      <c r="Y36" s="184"/>
-      <c r="Z36" s="184"/>
-      <c r="AA36" s="184"/>
-      <c r="AB36" s="184"/>
-      <c r="AC36" s="184"/>
-      <c r="AD36" s="184"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="185"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="185"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
+      <c r="S36" s="185"/>
+      <c r="T36" s="185"/>
+      <c r="U36" s="185"/>
+      <c r="V36" s="185"/>
+      <c r="W36" s="185"/>
+      <c r="X36" s="185"/>
+      <c r="Y36" s="185"/>
+      <c r="Z36" s="185"/>
+      <c r="AA36" s="185"/>
+      <c r="AB36" s="185"/>
+      <c r="AC36" s="185"/>
+      <c r="AD36" s="185"/>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
@@ -4675,7 +4697,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4688,21 +4710,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="192"/>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
+      <c r="A1" s="193"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5008,10 +5030,10 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="193" t="s">
+      <c r="A27" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="194"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
@@ -5020,27 +5042,27 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="190" t="s">
+      <c r="A28" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="191"/>
+      <c r="B28" s="192"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="196"/>
+      <c r="B29" s="197"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
@@ -5048,41 +5070,41 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="191"/>
+      <c r="B30" s="192"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="195" t="s">
+      <c r="A31" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="196"/>
+      <c r="B31" s="197"/>
       <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C22</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5">
         <f>'IPA Zeitplanung'!D22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="191"/>
+      <c r="B32" s="192"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C27</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D32" s="5">
         <f>SUM('IPA Zeitplanung'!D27)</f>
@@ -5090,10 +5112,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="190" t="s">
+      <c r="A33" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="191"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="5">
         <f>'IPA Zeitplanung'!C29</f>
         <v>0</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -2303,6 +2303,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2466,11 +2467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201255880"/>
-        <c:axId val="201256272"/>
+        <c:axId val="289361616"/>
+        <c:axId val="289362008"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="201255880"/>
+        <c:axId val="289361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,14 +2481,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201256272"/>
+        <c:crossAx val="289362008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="201256272"/>
+        <c:axId val="289362008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,13 +2499,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201255880"/>
+        <c:crossAx val="289361616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2588,19 +2590,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2662,16 +2664,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2697,11 +2699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201257056"/>
-        <c:axId val="201257448"/>
+        <c:axId val="289362792"/>
+        <c:axId val="289363184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201257056"/>
+        <c:axId val="289362792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201257448"/>
+        <c:crossAx val="289363184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2719,7 +2721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201257448"/>
+        <c:axId val="289363184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,13 +2732,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201257056"/>
+        <c:crossAx val="289362792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3175,7 +3178,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:AD1"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3362,11 +3365,11 @@
       </c>
       <c r="C5" s="115">
         <f>SUM(C6:C10)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="116">
         <f>SUM(D6:D10)</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="117"/>
       <c r="F5" s="118"/>
@@ -3402,10 +3405,11 @@
       <c r="B6" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="str">
-        <f>IF(SUM(K6:AD6)=0," ",SUM(K6:AD6))</f>
-        <v xml:space="preserve"> </v>
+      <c r="C6" s="37">
+        <v>1</v>
+      </c>
+      <c r="D6" s="38">
+        <v>1</v>
       </c>
       <c r="E6" s="36">
         <v>1</v>
@@ -3532,7 +3536,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="48">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="38">
         <v>0.5</v>
@@ -3574,7 +3578,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="38" t="str">
         <f t="shared" si="0"/>
@@ -3618,11 +3622,11 @@
       </c>
       <c r="C11" s="126">
         <f>SUM(C12:C14)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="115">
         <f>SUM(D12:D14)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="117"/>
       <c r="F11" s="118"/>
@@ -3661,9 +3665,8 @@
       <c r="C12" s="37">
         <v>1</v>
       </c>
-      <c r="D12" s="72" t="str">
-        <f>IF(SUM(K12:AD12)=0," ",SUM(K12:AD12))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D12" s="72">
+        <v>1</v>
       </c>
       <c r="E12" s="36">
         <v>1</v>
@@ -3702,11 +3705,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="37">
-        <v>1</v>
-      </c>
-      <c r="D13" s="72" t="str">
-        <f t="shared" ref="D13:D14" si="1">IF(SUM(K13:AD13)=0," ",SUM(K13:AD13))</f>
-        <v xml:space="preserve"> </v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="72">
+        <v>4</v>
       </c>
       <c r="E13" s="36">
         <v>1</v>
@@ -3744,7 +3746,7 @@
       <c r="B14" s="91"/>
       <c r="C14" s="37"/>
       <c r="D14" s="72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D14" si="1">IF(SUM(K14:AD14)=0," ",SUM(K14:AD14))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="36"/>
@@ -3783,11 +3785,11 @@
       </c>
       <c r="C15" s="115">
         <f>SUM(C16:C21)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="116">
         <f>SUM(D16:D21)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E15" s="117"/>
       <c r="F15" s="118"/>
@@ -3827,7 +3829,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="72">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -3869,7 +3871,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="36">
         <v>1</v>
@@ -3910,7 +3912,9 @@
       <c r="C18" s="37">
         <v>3</v>
       </c>
-      <c r="D18" s="72"/>
+      <c r="D18" s="72">
+        <v>2</v>
+      </c>
       <c r="E18" s="36">
         <v>1</v>
       </c>
@@ -3950,7 +3954,9 @@
       <c r="C19" s="37">
         <v>4</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="72">
+        <v>1</v>
+      </c>
       <c r="E19" s="36">
         <v>1</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="38" t="str">
         <f>IF(SUM(K21:AD21)=0," ",SUM(K21:AD21))</f>
@@ -4076,7 +4082,7 @@
       </c>
       <c r="D22" s="116">
         <f>SUM(D23:D26)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22" s="122"/>
       <c r="F22" s="118"/>
@@ -4115,9 +4121,8 @@
       <c r="C23" s="37">
         <v>2</v>
       </c>
-      <c r="D23" s="72" t="str">
-        <f>IF(SUM(K23:AD23)=0," ",SUM(K23:AD23))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D23" s="72">
+        <v>1</v>
       </c>
       <c r="E23" s="36">
         <v>1</v>
@@ -4159,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="36">
         <v>1</v>
@@ -4200,9 +4205,8 @@
       <c r="C25" s="69">
         <v>6</v>
       </c>
-      <c r="D25" s="72" t="str">
-        <f>IF(SUM(K25:AD25)=0," ",SUM(K25:AD25))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D25" s="72">
+        <v>1</v>
       </c>
       <c r="E25" s="76">
         <v>1</v>
@@ -4285,7 +4289,7 @@
       </c>
       <c r="C27" s="115">
         <f>SUM(C28)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="116">
         <f>SUM(D28)</f>
@@ -4326,7 +4330,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="69">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="79" t="str">
         <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
@@ -4490,9 +4494,9 @@
         <f>SUM(C5+C11+C15+C22+C27)</f>
         <v>88</v>
       </c>
-      <c r="D32" s="131" t="str">
-        <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D32" s="131">
+        <f>SUM(D5+D11+D15+D22+D27+D29)</f>
+        <v>39.5</v>
       </c>
       <c r="E32" s="131"/>
       <c r="F32" s="131"/>
@@ -4696,7 +4700,7 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -5048,11 +5052,11 @@
       <c r="B28" s="192"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5062,11 +5066,11 @@
       <c r="B29" s="197"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5076,11 +5080,11 @@
       <c r="B30" s="192"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5094,7 +5098,7 @@
       </c>
       <c r="D31" s="5">
         <f>'IPA Zeitplanung'!D22</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5108,7 @@
       <c r="B32" s="192"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C27</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="5">
         <f>SUM('IPA Zeitplanung'!D27)</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AD$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AD$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -260,9 +260,6 @@
     <t>IP REQ005</t>
   </si>
   <si>
-    <t>Stabile Scripts REQ006</t>
-  </si>
-  <si>
     <t>Datenübertragung per USB REQ007</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>Node JS Raspberry Pi Cluster</t>
+  </si>
+  <si>
+    <t>Kommunikation im Netz</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="97">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -1290,41 +1290,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1672,7 +1637,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1919,25 +1884,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,13 +1905,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1961,7 +1920,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1929,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,17 +1944,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2036,7 +1992,7 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2063,7 +2019,7 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,7 +2043,7 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2099,115 +2055,103 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="88" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="89" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="94" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
@@ -2223,9 +2167,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2467,11 +2408,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="289361616"/>
-        <c:axId val="289362008"/>
+        <c:axId val="288353048"/>
+        <c:axId val="288353440"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="289361616"/>
+        <c:axId val="288353048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,14 +2422,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289362008"/>
+        <c:crossAx val="288353440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="289362008"/>
+        <c:axId val="288353440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289361616"/>
+        <c:crossAx val="288353048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2596,7 +2537,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
@@ -2664,16 +2605,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2699,11 +2640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="289362792"/>
-        <c:axId val="289363184"/>
+        <c:axId val="289191896"/>
+        <c:axId val="289192288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289362792"/>
+        <c:axId val="289191896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,7 +2654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289363184"/>
+        <c:crossAx val="289192288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2721,7 +2662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289363184"/>
+        <c:axId val="289192288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,7 +2673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289362792"/>
+        <c:crossAx val="289191896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3178,7 +3119,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3198,38 +3139,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="189"/>
+      <c r="A1" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
     </row>
     <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -3245,11 +3186,11 @@
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="190" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="190"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="26"/>
@@ -3257,21 +3198,21 @@
       <c r="I3" s="26"/>
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
-      <c r="L3" s="181"/>
+      <c r="L3" s="174"/>
       <c r="M3" s="26"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
       <c r="S3" s="26"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
       <c r="Y3" s="26"/>
-      <c r="Z3" s="182"/>
+      <c r="Z3" s="175"/>
       <c r="AA3" s="26"/>
       <c r="AB3" s="26"/>
       <c r="AC3" s="26"/>
@@ -3282,10 +3223,10 @@
       <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
@@ -3298,111 +3239,111 @@
       <c r="F4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="141" t="s">
+      <c r="H4" s="138" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="142" t="s">
+      <c r="J4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="149">
+      <c r="K4" s="146">
         <v>42702</v>
       </c>
-      <c r="L4" s="150">
+      <c r="L4" s="147">
         <v>42705</v>
       </c>
-      <c r="M4" s="152">
+      <c r="M4" s="149">
         <f>L4+1</f>
         <v>42706</v>
       </c>
-      <c r="N4" s="153">
+      <c r="N4" s="150">
         <v>42709</v>
       </c>
-      <c r="O4" s="153">
+      <c r="O4" s="150">
         <v>42712</v>
       </c>
-      <c r="P4" s="154">
+      <c r="P4" s="151">
         <v>42713</v>
       </c>
-      <c r="Q4" s="149">
+      <c r="Q4" s="146">
         <v>42716</v>
       </c>
-      <c r="R4" s="150">
+      <c r="R4" s="147">
         <v>42719</v>
       </c>
-      <c r="S4" s="149">
+      <c r="S4" s="146">
         <v>42720</v>
       </c>
-      <c r="T4" s="155">
+      <c r="T4" s="152">
         <v>42723</v>
       </c>
-      <c r="U4" s="155">
+      <c r="U4" s="152">
         <v>42726</v>
       </c>
-      <c r="V4" s="150">
+      <c r="V4" s="147">
         <v>42727</v>
       </c>
       <c r="W4" s="32"/>
-      <c r="X4" s="128"/>
+      <c r="X4" s="125"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
-      <c r="AD4" s="90"/>
+      <c r="AD4" s="88"/>
     </row>
     <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112">
+      <c r="A5" s="109">
         <v>10</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="112">
         <f>SUM(C6:C10)</f>
         <v>12</v>
       </c>
-      <c r="D5" s="116">
+      <c r="D5" s="113">
         <f>SUM(D6:D10)</f>
-        <v>4.5</v>
-      </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="125"/>
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="122"/>
     </row>
     <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="85">
         <v>11</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="89" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="37">
@@ -3418,33 +3359,33 @@
       <c r="G6" s="73"/>
       <c r="H6" s="39"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="183"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="176"/>
       <c r="L6" s="42"/>
       <c r="M6" s="43"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="156"/>
+      <c r="O6" s="153"/>
       <c r="P6" s="45"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="74"/>
       <c r="S6" s="41"/>
-      <c r="T6" s="172"/>
+      <c r="T6" s="165"/>
       <c r="U6" s="37"/>
       <c r="V6" s="74"/>
-      <c r="W6" s="129"/>
+      <c r="W6" s="126"/>
       <c r="X6" s="42"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="46"/>
       <c r="AA6" s="44"/>
       <c r="AB6" s="44"/>
       <c r="AC6" s="44"/>
-      <c r="AD6" s="92"/>
+      <c r="AD6" s="90"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85">
         <v>12</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="91" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="48">
@@ -3460,40 +3401,40 @@
       <c r="G7" s="73"/>
       <c r="H7" s="39"/>
       <c r="I7" s="40"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="156"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="153"/>
       <c r="M7" s="51"/>
       <c r="N7" s="50"/>
-      <c r="O7" s="156"/>
+      <c r="O7" s="153"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="49"/>
       <c r="R7" s="74"/>
       <c r="S7" s="49"/>
-      <c r="T7" s="173"/>
+      <c r="T7" s="166"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="129"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="126"/>
       <c r="X7" s="50"/>
       <c r="Y7" s="54"/>
       <c r="Z7" s="55"/>
       <c r="AA7" s="52"/>
       <c r="AB7" s="52"/>
       <c r="AC7" s="52"/>
-      <c r="AD7" s="94"/>
+      <c r="AD7" s="92"/>
     </row>
     <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="85">
         <v>13</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="91" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="48">
         <v>3</v>
       </c>
       <c r="D8" s="38" t="str">
-        <f t="shared" ref="D8:D10" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
+        <f t="shared" ref="D8" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="47">
@@ -3503,27 +3444,27 @@
       <c r="G8" s="73"/>
       <c r="H8" s="39"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="183"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="176"/>
       <c r="L8" s="74"/>
       <c r="M8" s="51"/>
       <c r="N8" s="50"/>
-      <c r="O8" s="156"/>
+      <c r="O8" s="153"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="49"/>
       <c r="R8" s="74"/>
       <c r="S8" s="49"/>
-      <c r="T8" s="173"/>
+      <c r="T8" s="166"/>
       <c r="U8" s="48"/>
-      <c r="V8" s="183"/>
-      <c r="W8" s="129"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="126"/>
       <c r="X8" s="50"/>
       <c r="Y8" s="54"/>
       <c r="Z8" s="55"/>
       <c r="AA8" s="52"/>
       <c r="AB8" s="52"/>
       <c r="AC8" s="38"/>
-      <c r="AD8" s="95"/>
+      <c r="AD8" s="93"/>
       <c r="AF8" s="8" t="s">
         <v>5</v>
       </c>
@@ -3532,7 +3473,7 @@
       <c r="A9" s="85">
         <v>14</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="94" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="48">
@@ -3548,41 +3489,40 @@
       <c r="G9" s="73"/>
       <c r="H9" s="39"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="105"/>
+      <c r="J9" s="103"/>
       <c r="K9" s="43"/>
-      <c r="L9" s="183"/>
+      <c r="L9" s="176"/>
       <c r="M9" s="51"/>
       <c r="N9" s="50"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="183"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="176"/>
       <c r="Q9" s="49"/>
-      <c r="R9" s="183"/>
+      <c r="R9" s="176"/>
       <c r="S9" s="49"/>
-      <c r="T9" s="173"/>
+      <c r="T9" s="166"/>
       <c r="U9" s="48"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="129"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="126"/>
       <c r="X9" s="50"/>
       <c r="Y9" s="57"/>
       <c r="Z9" s="51"/>
       <c r="AA9" s="52"/>
       <c r="AB9" s="52"/>
       <c r="AC9" s="38"/>
-      <c r="AD9" s="95"/>
+      <c r="AD9" s="93"/>
     </row>
     <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85">
         <v>15</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="94" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="59">
         <v>2.5</v>
       </c>
-      <c r="D10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D10" s="38">
+        <v>1</v>
       </c>
       <c r="E10" s="58">
         <v>1</v>
@@ -3591,19 +3531,19 @@
       <c r="G10" s="57"/>
       <c r="H10" s="54"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="105"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="43"/>
       <c r="L10" s="74"/>
       <c r="M10" s="63"/>
       <c r="N10" s="61"/>
-      <c r="O10" s="157"/>
+      <c r="O10" s="154"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="60"/>
-      <c r="R10" s="109"/>
+      <c r="R10" s="107"/>
       <c r="S10" s="60"/>
-      <c r="T10" s="174"/>
+      <c r="T10" s="167"/>
       <c r="U10" s="59"/>
-      <c r="V10" s="165"/>
+      <c r="V10" s="161"/>
       <c r="W10" s="81"/>
       <c r="X10" s="61"/>
       <c r="Y10" s="66"/>
@@ -3611,55 +3551,55 @@
       <c r="AA10" s="64"/>
       <c r="AB10" s="64"/>
       <c r="AC10" s="68"/>
-      <c r="AD10" s="95"/>
+      <c r="AD10" s="93"/>
     </row>
     <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112">
-        <v>20</v>
-      </c>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="109">
+        <v>16</v>
+      </c>
+      <c r="B11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="123">
         <f>SUM(C12:C14)</f>
         <v>5</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="112">
         <f>SUM(D12:D14)</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="125"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="122"/>
     </row>
     <row r="12" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86">
-        <v>21</v>
-      </c>
-      <c r="B12" s="91" t="s">
+      <c r="A12" s="85">
+        <v>17</v>
+      </c>
+      <c r="B12" s="89" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="37">
@@ -3675,12 +3615,12 @@
       <c r="G12" s="73"/>
       <c r="H12" s="39"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
       <c r="M12" s="51"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="156"/>
+      <c r="O12" s="153"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="74"/>
@@ -3688,27 +3628,27 @@
       <c r="T12" s="72"/>
       <c r="U12" s="37"/>
       <c r="V12" s="74"/>
-      <c r="W12" s="129"/>
+      <c r="W12" s="126"/>
       <c r="X12" s="42"/>
       <c r="Y12" s="73"/>
       <c r="Z12" s="46"/>
       <c r="AA12" s="44"/>
       <c r="AB12" s="44"/>
       <c r="AC12" s="72"/>
-      <c r="AD12" s="97"/>
+      <c r="AD12" s="95"/>
     </row>
     <row r="13" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
-        <v>22</v>
-      </c>
-      <c r="B13" s="91" t="s">
+      <c r="A13" s="85">
+        <v>18</v>
+      </c>
+      <c r="B13" s="89" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="37">
         <v>4</v>
       </c>
       <c r="D13" s="72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="36">
         <v>1</v>
@@ -3717,12 +3657,12 @@
       <c r="G13" s="73"/>
       <c r="H13" s="39"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="183"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="74"/>
       <c r="M13" s="51"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="156"/>
+      <c r="O13" s="153"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="74"/>
@@ -3730,20 +3670,20 @@
       <c r="T13" s="72"/>
       <c r="U13" s="37"/>
       <c r="V13" s="74"/>
-      <c r="W13" s="129"/>
+      <c r="W13" s="126"/>
       <c r="X13" s="42"/>
       <c r="Y13" s="73"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
       <c r="AC13" s="72"/>
-      <c r="AD13" s="97"/>
+      <c r="AD13" s="95"/>
     </row>
     <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86">
-        <v>23</v>
-      </c>
-      <c r="B14" s="91"/>
+      <c r="A14" s="85">
+        <v>19</v>
+      </c>
+      <c r="B14" s="89"/>
       <c r="C14" s="37"/>
       <c r="D14" s="72" t="str">
         <f t="shared" ref="D14" si="1">IF(SUM(K14:AD14)=0," ",SUM(K14:AD14))</f>
@@ -3754,12 +3694,12 @@
       <c r="G14" s="73"/>
       <c r="H14" s="39"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="105"/>
+      <c r="J14" s="103"/>
       <c r="K14" s="41"/>
       <c r="L14" s="74"/>
       <c r="M14" s="51"/>
       <c r="N14" s="42"/>
-      <c r="O14" s="156"/>
+      <c r="O14" s="153"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="74"/>
@@ -3767,69 +3707,69 @@
       <c r="T14" s="72"/>
       <c r="U14" s="37"/>
       <c r="V14" s="74"/>
-      <c r="W14" s="129"/>
+      <c r="W14" s="126"/>
       <c r="X14" s="42"/>
       <c r="Y14" s="73"/>
       <c r="Z14" s="46"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>
       <c r="AC14" s="72"/>
-      <c r="AD14" s="97"/>
+      <c r="AD14" s="95"/>
     </row>
     <row r="15" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112">
-        <v>30</v>
-      </c>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="109">
+        <v>20</v>
+      </c>
+      <c r="B15" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="112">
         <f>SUM(C16:C21)</f>
-        <v>47</v>
-      </c>
-      <c r="D15" s="116">
+        <v>56</v>
+      </c>
+      <c r="D15" s="113">
         <f>SUM(D16:D21)</f>
-        <v>24</v>
-      </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="125"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="122"/>
     </row>
     <row r="16" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86">
-        <v>31</v>
-      </c>
-      <c r="B16" s="98" t="s">
+      <c r="A16" s="85">
+        <v>21</v>
+      </c>
+      <c r="B16" s="96" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="37">
         <v>25</v>
       </c>
       <c r="D16" s="72">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -3838,33 +3778,33 @@
       <c r="G16" s="73"/>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="161"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="157"/>
       <c r="L16" s="74"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="183"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
       <c r="S16" s="41"/>
-      <c r="T16" s="172"/>
+      <c r="T16" s="165"/>
       <c r="U16" s="73"/>
       <c r="V16" s="74"/>
-      <c r="W16" s="129"/>
+      <c r="W16" s="126"/>
       <c r="X16" s="42"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="46"/>
       <c r="AA16" s="44"/>
       <c r="AB16" s="44"/>
       <c r="AC16" s="72"/>
-      <c r="AD16" s="97"/>
+      <c r="AD16" s="95"/>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86">
-        <v>32</v>
-      </c>
-      <c r="B17" s="98" t="s">
+      <c r="A17" s="85">
+        <v>22</v>
+      </c>
+      <c r="B17" s="96" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="37">
@@ -3880,40 +3820,40 @@
       <c r="G17" s="73"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="161"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="74"/>
-      <c r="M17" s="183"/>
+      <c r="M17" s="176"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="156"/>
+      <c r="O17" s="153"/>
       <c r="P17" s="45"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="156"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
       <c r="S17" s="41"/>
-      <c r="T17" s="172"/>
+      <c r="T17" s="165"/>
       <c r="U17" s="73"/>
       <c r="V17" s="74"/>
-      <c r="W17" s="129"/>
+      <c r="W17" s="126"/>
       <c r="X17" s="42"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="46"/>
       <c r="AA17" s="44"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="72"/>
-      <c r="AD17" s="97"/>
+      <c r="AD17" s="95"/>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86">
-        <v>33</v>
-      </c>
-      <c r="B18" s="98" t="s">
+      <c r="A18" s="85">
+        <v>23</v>
+      </c>
+      <c r="B18" s="96" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="37">
         <v>3</v>
       </c>
       <c r="D18" s="72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="36">
         <v>1</v>
@@ -3922,81 +3862,81 @@
       <c r="G18" s="73"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="161"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="157"/>
       <c r="L18" s="74"/>
       <c r="M18" s="43"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="163"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="159"/>
       <c r="S18" s="73"/>
       <c r="T18" s="73"/>
       <c r="U18" s="73"/>
-      <c r="V18" s="184"/>
-      <c r="W18" s="129"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="126"/>
       <c r="X18" s="42"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="46"/>
       <c r="AA18" s="44"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="72"/>
-      <c r="AD18" s="97"/>
+      <c r="AD18" s="95"/>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86">
-        <v>34</v>
-      </c>
-      <c r="B19" s="98" t="s">
-        <v>40</v>
+      <c r="A19" s="85">
+        <v>24</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="37">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D19" s="72">
-        <v>1</v>
-      </c>
-      <c r="E19" s="36">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E19" s="36"/>
       <c r="F19" s="37"/>
       <c r="G19" s="73"/>
       <c r="H19" s="39"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="161"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="157"/>
       <c r="L19" s="74"/>
       <c r="M19" s="43"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="74"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="176"/>
       <c r="S19" s="73"/>
       <c r="T19" s="73"/>
       <c r="U19" s="73"/>
-      <c r="V19" s="184"/>
-      <c r="W19" s="129"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="126"/>
       <c r="X19" s="42"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="46"/>
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="72"/>
-      <c r="AD19" s="97"/>
+      <c r="AD19" s="95"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86">
-        <v>35</v>
-      </c>
-      <c r="B20" s="98" t="s">
-        <v>41</v>
+      <c r="A20" s="85">
+        <v>25</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="37">
         <v>2</v>
       </c>
-      <c r="D20" s="72"/>
+      <c r="D20" s="72">
+        <v>1</v>
+      </c>
       <c r="E20" s="36">
         <v>1</v>
       </c>
@@ -4004,37 +3944,37 @@
       <c r="G20" s="73"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="161"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="157"/>
       <c r="L20" s="74"/>
       <c r="M20" s="43"/>
       <c r="N20" s="42"/>
-      <c r="O20" s="156"/>
+      <c r="O20" s="153"/>
       <c r="P20" s="45"/>
-      <c r="Q20" s="183"/>
+      <c r="Q20" s="176"/>
       <c r="R20" s="74"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="172"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
       <c r="U20" s="73"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="129"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="126"/>
       <c r="X20" s="42"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="46"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="72"/>
-      <c r="AD20" s="97"/>
+      <c r="AD20" s="95"/>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86">
-        <v>36</v>
-      </c>
-      <c r="B21" s="98" t="s">
-        <v>42</v>
+      <c r="A21" s="85">
+        <v>26</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="38" t="str">
         <f>IF(SUM(K21:AD21)=0," ",SUM(K21:AD21))</f>
@@ -4047,75 +3987,75 @@
       <c r="G21" s="73"/>
       <c r="H21" s="39"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="163"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="159"/>
       <c r="M21" s="51"/>
       <c r="N21" s="50"/>
-      <c r="O21" s="156"/>
+      <c r="O21" s="153"/>
       <c r="P21" s="53"/>
       <c r="Q21" s="73"/>
-      <c r="R21" s="183"/>
+      <c r="R21" s="176"/>
       <c r="S21" s="49"/>
-      <c r="T21" s="173"/>
+      <c r="T21" s="166"/>
       <c r="U21" s="57"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="129"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="126"/>
       <c r="X21" s="50"/>
       <c r="Y21" s="48"/>
       <c r="Z21" s="75"/>
       <c r="AA21" s="52"/>
       <c r="AB21" s="52"/>
       <c r="AC21" s="38"/>
-      <c r="AD21" s="95"/>
+      <c r="AD21" s="93"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112">
-        <v>40</v>
-      </c>
-      <c r="B22" s="113" t="s">
+      <c r="A22" s="109">
+        <v>27</v>
+      </c>
+      <c r="B22" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="115">
+      <c r="C22" s="112">
         <f>SUM(C23:C26)</f>
         <v>15</v>
       </c>
-      <c r="D22" s="116">
+      <c r="D22" s="113">
         <f>SUM(D23:D26)</f>
-        <v>6</v>
-      </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="119"/>
-      <c r="Z22" s="114"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="123"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="125"/>
+        <v>9</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="122"/>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86">
-        <v>30</v>
-      </c>
-      <c r="B23" s="99" t="s">
+      <c r="A23" s="85">
+        <v>28</v>
+      </c>
+      <c r="B23" s="97" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="37">
@@ -4131,40 +4071,40 @@
       <c r="G23" s="73"/>
       <c r="H23" s="39"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="161"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="157"/>
       <c r="L23" s="74"/>
       <c r="M23" s="43"/>
       <c r="N23" s="42"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="183"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="176"/>
       <c r="Q23" s="41"/>
-      <c r="R23" s="183"/>
+      <c r="R23" s="176"/>
       <c r="S23" s="41"/>
-      <c r="T23" s="172"/>
+      <c r="T23" s="165"/>
       <c r="U23" s="73"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="129"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="126"/>
       <c r="X23" s="42"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="46"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
-      <c r="AD23" s="100"/>
+      <c r="AD23" s="98"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86">
-        <v>31</v>
-      </c>
-      <c r="B24" s="99" t="s">
+      <c r="A24" s="85">
+        <v>29</v>
+      </c>
+      <c r="B24" s="97" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="37">
         <v>6</v>
       </c>
       <c r="D24" s="72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="36">
         <v>1</v>
@@ -4173,40 +4113,40 @@
       <c r="G24" s="73"/>
       <c r="H24" s="39"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="161"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="157"/>
       <c r="L24" s="74"/>
       <c r="M24" s="43"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="183"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="176"/>
       <c r="Q24" s="41"/>
-      <c r="R24" s="183"/>
+      <c r="R24" s="176"/>
       <c r="S24" s="41"/>
-      <c r="T24" s="172"/>
+      <c r="T24" s="165"/>
       <c r="U24" s="73"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="129"/>
+      <c r="V24" s="176"/>
+      <c r="W24" s="126"/>
       <c r="X24" s="42"/>
       <c r="Y24" s="37"/>
       <c r="Z24" s="46"/>
       <c r="AA24" s="52"/>
       <c r="AB24" s="52"/>
       <c r="AC24" s="52"/>
-      <c r="AD24" s="101"/>
+      <c r="AD24" s="99"/>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86">
-        <v>32</v>
-      </c>
-      <c r="B25" s="102" t="s">
+      <c r="A25" s="85">
+        <v>30</v>
+      </c>
+      <c r="B25" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="69">
         <v>6</v>
       </c>
       <c r="D25" s="72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="76">
         <v>1</v>
@@ -4215,19 +4155,19 @@
       <c r="G25" s="57"/>
       <c r="H25" s="54"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="163"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="159"/>
       <c r="M25" s="51"/>
       <c r="N25" s="50"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="171"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="171"/>
-      <c r="T25" s="175"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="176"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="168"/>
       <c r="U25" s="80"/>
-      <c r="V25" s="183"/>
+      <c r="V25" s="176"/>
       <c r="W25" s="81"/>
       <c r="X25" s="62"/>
       <c r="Y25" s="80"/>
@@ -4235,13 +4175,13 @@
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44"/>
-      <c r="AD25" s="94"/>
+      <c r="AD25" s="92"/>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="85">
-        <v>33</v>
-      </c>
-      <c r="B26" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="100" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="59">
@@ -4258,76 +4198,76 @@
       <c r="G26" s="80"/>
       <c r="H26" s="70"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="165"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="161"/>
       <c r="M26" s="63"/>
       <c r="N26" s="61"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="183"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="176"/>
       <c r="Q26" s="60"/>
-      <c r="R26" s="183"/>
+      <c r="R26" s="176"/>
       <c r="S26" s="60"/>
-      <c r="T26" s="174"/>
+      <c r="T26" s="167"/>
       <c r="U26" s="66"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="177"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="170"/>
       <c r="X26" s="61"/>
       <c r="Y26" s="66"/>
       <c r="Z26" s="67"/>
       <c r="AA26" s="64"/>
       <c r="AB26" s="64"/>
       <c r="AC26" s="64"/>
-      <c r="AD26" s="103"/>
+      <c r="AD26" s="101"/>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112">
-        <v>50</v>
-      </c>
-      <c r="B27" s="113" t="s">
+      <c r="A27" s="109">
+        <v>32</v>
+      </c>
+      <c r="B27" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="115">
+      <c r="C27" s="112">
         <f>SUM(C28)</f>
         <v>9</v>
       </c>
-      <c r="D27" s="116">
+      <c r="D27" s="113">
         <f>SUM(D28)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="123"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="114"/>
-      <c r="AA27" s="123"/>
-      <c r="AB27" s="123"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="125"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="119"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="122"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87">
-        <v>51</v>
-      </c>
-      <c r="B28" s="102" t="s">
-        <v>43</v>
+      <c r="A28" s="85">
+        <v>33</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>42</v>
       </c>
       <c r="C28" s="69">
         <v>9</v>
@@ -4343,19 +4283,19 @@
       <c r="G28" s="80"/>
       <c r="H28" s="70"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="158"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="155"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="157"/>
+      <c r="O28" s="154"/>
       <c r="P28" s="56"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="175"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="168"/>
       <c r="U28" s="80"/>
-      <c r="V28" s="109"/>
+      <c r="V28" s="107"/>
       <c r="W28" s="81"/>
       <c r="X28" s="62"/>
       <c r="Y28" s="70"/>
@@ -4363,55 +4303,55 @@
       <c r="AA28" s="78"/>
       <c r="AB28" s="78"/>
       <c r="AC28" s="78"/>
-      <c r="AD28" s="94"/>
+      <c r="AD28" s="92"/>
     </row>
     <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="112">
-        <v>60</v>
-      </c>
-      <c r="B29" s="113" t="s">
+      <c r="A29" s="109">
+        <v>34</v>
+      </c>
+      <c r="B29" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="115">
+      <c r="C29" s="112">
         <f>SUM(C30:C31)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="116">
+      <c r="D29" s="113">
         <f>SUM(D30:D31)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="117"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="123"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="123"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="125"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="120"/>
+      <c r="AC29" s="121"/>
+      <c r="AD29" s="122"/>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86">
-        <v>61</v>
-      </c>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="85">
+        <v>35</v>
+      </c>
+      <c r="B30" s="96" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="37"/>
@@ -4426,33 +4366,33 @@
       <c r="G30" s="73"/>
       <c r="H30" s="39"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="161"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="157"/>
       <c r="L30" s="74"/>
       <c r="M30" s="43"/>
       <c r="N30" s="42"/>
-      <c r="O30" s="156"/>
+      <c r="O30" s="153"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="41"/>
       <c r="R30" s="74"/>
       <c r="S30" s="41"/>
-      <c r="T30" s="172"/>
+      <c r="T30" s="165"/>
       <c r="U30" s="73"/>
       <c r="V30" s="74"/>
-      <c r="W30" s="129"/>
+      <c r="W30" s="126"/>
       <c r="X30" s="42"/>
       <c r="Y30" s="73"/>
       <c r="Z30" s="43"/>
       <c r="AA30" s="44"/>
       <c r="AB30" s="44"/>
       <c r="AC30" s="44"/>
-      <c r="AD30" s="101"/>
+      <c r="AD30" s="99"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="85">
-        <v>62</v>
-      </c>
-      <c r="B31" s="99"/>
+        <v>36</v>
+      </c>
+      <c r="B31" s="97"/>
       <c r="C31" s="48"/>
       <c r="D31" s="38" t="str">
         <f>IF(SUM(K31:AD31)=0," ",SUM(K31:AD31))</f>
@@ -4460,100 +4400,102 @@
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="82"/>
-      <c r="G31" s="139"/>
+      <c r="G31" s="136"/>
       <c r="H31" s="83"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="163"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="159"/>
       <c r="M31" s="51"/>
       <c r="N31" s="50"/>
-      <c r="O31" s="156"/>
+      <c r="O31" s="153"/>
       <c r="P31" s="53"/>
       <c r="Q31" s="49"/>
       <c r="R31" s="74"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="179"/>
-      <c r="U31" s="180"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="172"/>
+      <c r="U31" s="173"/>
       <c r="V31" s="71"/>
-      <c r="W31" s="129"/>
+      <c r="W31" s="126"/>
       <c r="X31" s="50"/>
       <c r="Y31" s="57"/>
       <c r="Z31" s="51"/>
       <c r="AA31" s="52"/>
       <c r="AB31" s="52"/>
       <c r="AC31" s="52"/>
-      <c r="AD31" s="101"/>
+      <c r="AD31" s="99"/>
     </row>
     <row r="32" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="111"/>
-      <c r="B32" s="130" t="s">
+      <c r="A32" s="109">
+        <v>37</v>
+      </c>
+      <c r="B32" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="131">
+      <c r="C32" s="128">
         <f>SUM(C5+C11+C15+C22+C27)</f>
-        <v>88</v>
-      </c>
-      <c r="D32" s="131">
+        <v>97</v>
+      </c>
+      <c r="D32" s="128">
         <f>SUM(D5+D11+D15+D22+D27+D29)</f>
-        <v>39.5</v>
-      </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="159">
-        <f t="shared" ref="K32:O32" si="2">SUM(K5:K31)</f>
+        <v>46.5</v>
+      </c>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="132">
+        <f>SUM(K5:K31)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="167">
-        <f t="shared" si="2"/>
+      <c r="L32" s="128">
+        <f>SUM(L5:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="159">
-        <f t="shared" si="2"/>
+      <c r="M32" s="132">
+        <f>SUM(M5:M31)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="159">
-        <f t="shared" si="2"/>
+      <c r="N32" s="132">
+        <f>SUM(N5:N31)</f>
         <v>0</v>
       </c>
       <c r="O32" s="169">
-        <f t="shared" si="2"/>
+        <f>SUM(O5:O31)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="167"/>
-      <c r="R32" s="159"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="176"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="131"/>
-      <c r="AD32" s="136"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="133"/>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="138"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="15" t="s">
         <v>22</v>
       </c>
@@ -4565,29 +4507,29 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="186"/>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="187"/>
-      <c r="O34" s="187"/>
-      <c r="P34" s="187"/>
-      <c r="Q34" s="187"/>
-      <c r="R34" s="187"/>
-      <c r="S34" s="187"/>
-      <c r="T34" s="187"/>
-      <c r="U34" s="187"/>
-      <c r="V34" s="187"/>
-      <c r="W34" s="187"/>
-      <c r="X34" s="187"/>
-      <c r="Y34" s="187"/>
-      <c r="Z34" s="187"/>
-      <c r="AA34" s="187"/>
-      <c r="AB34" s="187"/>
-      <c r="AC34" s="187"/>
-      <c r="AD34" s="187"/>
+      <c r="K34" s="179"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="180"/>
+      <c r="O34" s="180"/>
+      <c r="P34" s="180"/>
+      <c r="Q34" s="180"/>
+      <c r="R34" s="180"/>
+      <c r="S34" s="180"/>
+      <c r="T34" s="180"/>
+      <c r="U34" s="180"/>
+      <c r="V34" s="180"/>
+      <c r="W34" s="180"/>
+      <c r="X34" s="180"/>
+      <c r="Y34" s="180"/>
+      <c r="Z34" s="180"/>
+      <c r="AA34" s="180"/>
+      <c r="AB34" s="180"/>
+      <c r="AC34" s="180"/>
+      <c r="AD34" s="180"/>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="14"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
@@ -4597,26 +4539,26 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="185"/>
-      <c r="L35" s="185"/>
-      <c r="M35" s="185"/>
-      <c r="N35" s="185"/>
-      <c r="O35" s="185"/>
-      <c r="P35" s="185"/>
-      <c r="Q35" s="185"/>
-      <c r="R35" s="185"/>
-      <c r="S35" s="185"/>
-      <c r="T35" s="185"/>
-      <c r="U35" s="185"/>
-      <c r="V35" s="185"/>
-      <c r="W35" s="185"/>
-      <c r="X35" s="185"/>
-      <c r="Y35" s="185"/>
-      <c r="Z35" s="185"/>
-      <c r="AA35" s="185"/>
-      <c r="AB35" s="185"/>
-      <c r="AC35" s="185"/>
-      <c r="AD35" s="185"/>
+      <c r="K35" s="178"/>
+      <c r="L35" s="178"/>
+      <c r="M35" s="178"/>
+      <c r="N35" s="178"/>
+      <c r="O35" s="178"/>
+      <c r="P35" s="178"/>
+      <c r="Q35" s="178"/>
+      <c r="R35" s="178"/>
+      <c r="S35" s="178"/>
+      <c r="T35" s="178"/>
+      <c r="U35" s="178"/>
+      <c r="V35" s="178"/>
+      <c r="W35" s="178"/>
+      <c r="X35" s="178"/>
+      <c r="Y35" s="178"/>
+      <c r="Z35" s="178"/>
+      <c r="AA35" s="178"/>
+      <c r="AB35" s="178"/>
+      <c r="AC35" s="178"/>
+      <c r="AD35" s="178"/>
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -4629,29 +4571,29 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="185"/>
-      <c r="L36" s="185"/>
-      <c r="M36" s="185"/>
-      <c r="N36" s="185"/>
-      <c r="O36" s="185"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
-      <c r="S36" s="185"/>
-      <c r="T36" s="185"/>
-      <c r="U36" s="185"/>
-      <c r="V36" s="185"/>
-      <c r="W36" s="185"/>
-      <c r="X36" s="185"/>
-      <c r="Y36" s="185"/>
-      <c r="Z36" s="185"/>
-      <c r="AA36" s="185"/>
-      <c r="AB36" s="185"/>
-      <c r="AC36" s="185"/>
-      <c r="AD36" s="185"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="178"/>
+      <c r="M36" s="178"/>
+      <c r="N36" s="178"/>
+      <c r="O36" s="178"/>
+      <c r="P36" s="178"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
+      <c r="S36" s="178"/>
+      <c r="T36" s="178"/>
+      <c r="U36" s="178"/>
+      <c r="V36" s="178"/>
+      <c r="W36" s="178"/>
+      <c r="X36" s="178"/>
+      <c r="Y36" s="178"/>
+      <c r="Z36" s="178"/>
+      <c r="AA36" s="178"/>
+      <c r="AB36" s="178"/>
+      <c r="AC36" s="178"/>
+      <c r="AD36" s="178"/>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="J37" s="9"/>
     </row>
@@ -4661,6 +4603,7 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4674,10 +4617,9 @@
       <c r="J42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="K35:AD36"/>
     <mergeCell ref="K34:AD34"/>
-    <mergeCell ref="B33:J33"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
@@ -4714,21 +4656,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
+      <c r="A1" s="185"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5034,10 +4976,10 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="195"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
@@ -5046,66 +4988,66 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="192"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>12</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="196" t="s">
+      <c r="A29" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="197"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>5</v>
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="191" t="s">
+      <c r="A30" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="192"/>
+      <c r="B30" s="184"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="196" t="s">
+      <c r="A31" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="197"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C22</f>
         <v>15</v>
       </c>
       <c r="D31" s="5">
         <f>'IPA Zeitplanung'!D22</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="192"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C27</f>
         <v>9</v>
@@ -5116,10 +5058,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="191" t="s">
+      <c r="A33" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="192"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="5">
         <f>'IPA Zeitplanung'!C29</f>
         <v>0</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -2244,7 +2244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2408,11 +2407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288353048"/>
-        <c:axId val="288353440"/>
+        <c:axId val="147409472"/>
+        <c:axId val="145759968"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="288353048"/>
+        <c:axId val="147409472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,14 +2421,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288353440"/>
+        <c:crossAx val="145759968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="288353440"/>
+        <c:axId val="145759968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,14 +2439,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288353048"/>
+        <c:crossAx val="147409472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2605,13 +2603,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -2640,11 +2638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="289191896"/>
-        <c:axId val="289192288"/>
+        <c:axId val="229525632"/>
+        <c:axId val="229526024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289191896"/>
+        <c:axId val="229525632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289192288"/>
+        <c:crossAx val="229526024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2662,7 +2660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289192288"/>
+        <c:axId val="229526024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,14 +2671,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289191896"/>
+        <c:crossAx val="229525632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3119,7 +3116,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3310,7 +3307,7 @@
       </c>
       <c r="D5" s="113">
         <f>SUM(D6:D10)</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115"/>
@@ -3433,9 +3430,8 @@
       <c r="C8" s="48">
         <v>3</v>
       </c>
-      <c r="D8" s="38" t="str">
-        <f t="shared" ref="D8" si="0">IF(SUM(K8:AD8)=0," ",SUM(K8:AD8))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D8" s="38">
+        <v>1</v>
       </c>
       <c r="E8" s="47">
         <v>1</v>
@@ -3566,7 +3562,7 @@
       </c>
       <c r="D11" s="112">
         <f>SUM(D12:D14)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" s="114"/>
       <c r="F11" s="115"/>
@@ -3648,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="72">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13" s="36">
         <v>1</v>
@@ -3686,7 +3682,7 @@
       <c r="B14" s="89"/>
       <c r="C14" s="37"/>
       <c r="D14" s="72" t="str">
-        <f t="shared" ref="D14" si="1">IF(SUM(K14:AD14)=0," ",SUM(K14:AD14))</f>
+        <f t="shared" ref="D14" si="0">IF(SUM(K14:AD14)=0," ",SUM(K14:AD14))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="36"/>
@@ -3729,7 +3725,7 @@
       </c>
       <c r="D15" s="113">
         <f>SUM(D16:D21)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
@@ -3769,7 +3765,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="72">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -3895,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="72">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
@@ -4438,7 +4434,7 @@
       </c>
       <c r="D32" s="128">
         <f>SUM(D5+D11+D15+D22+D27+D29)</f>
-        <v>46.5</v>
+        <v>56.5</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="128"/>
@@ -4998,7 +4994,7 @@
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5012,7 +5008,7 @@
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5026,7 +5022,7 @@
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" tabRatio="597"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="IPA Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2244,6 +2244,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2407,11 +2408,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147409472"/>
-        <c:axId val="145759968"/>
+        <c:axId val="302887512"/>
+        <c:axId val="302887904"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="147409472"/>
+        <c:axId val="302887512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,14 +2422,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145759968"/>
+        <c:crossAx val="302887904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="145759968"/>
+        <c:axId val="302887904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,13 +2440,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147409472"/>
+        <c:crossAx val="302887512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2603,13 +2605,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -2638,11 +2640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="229525632"/>
-        <c:axId val="229526024"/>
+        <c:axId val="302888688"/>
+        <c:axId val="302889080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229525632"/>
+        <c:axId val="302888688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229526024"/>
+        <c:crossAx val="302889080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2660,7 +2662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229526024"/>
+        <c:axId val="302889080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,13 +2673,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229525632"/>
+        <c:crossAx val="302888688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3116,7 +3119,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3307,7 +3310,7 @@
       </c>
       <c r="D5" s="113">
         <f>SUM(D6:D10)</f>
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115"/>
@@ -3431,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="47">
         <v>1</v>
@@ -3476,7 +3479,7 @@
         <v>1.5</v>
       </c>
       <c r="D9" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="47">
         <v>1</v>
@@ -3518,7 +3521,7 @@
         <v>2.5</v>
       </c>
       <c r="D10" s="38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="58">
         <v>1</v>
@@ -3725,7 +3728,7 @@
       </c>
       <c r="D15" s="113">
         <f>SUM(D16:D21)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
@@ -3765,7 +3768,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="72">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -3807,7 +3810,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="36">
         <v>1</v>
@@ -3891,7 +3894,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
@@ -4434,7 +4437,7 @@
       </c>
       <c r="D32" s="128">
         <f>SUM(D5+D11+D15+D22+D27+D29)</f>
-        <v>56.5</v>
+        <v>74</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="128"/>
@@ -4994,7 +4997,7 @@
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>6.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5022,7 +5025,7 @@
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="IPA Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2408,11 +2408,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="302887512"/>
-        <c:axId val="302887904"/>
+        <c:axId val="129009664"/>
+        <c:axId val="129010056"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="302887512"/>
+        <c:axId val="129009664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,14 +2422,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302887904"/>
+        <c:crossAx val="129010056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="302887904"/>
+        <c:axId val="129010056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302887512"/>
+        <c:crossAx val="129009664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2611,7 +2611,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -2640,11 +2640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="302888688"/>
-        <c:axId val="302889080"/>
+        <c:axId val="129010840"/>
+        <c:axId val="129011232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302888688"/>
+        <c:axId val="129010840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302889080"/>
+        <c:crossAx val="129011232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2662,7 +2662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302889080"/>
+        <c:axId val="129011232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302888688"/>
+        <c:crossAx val="129010840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3119,7 +3119,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="D15" s="113">
         <f>SUM(D16:D21)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
@@ -3894,7 +3894,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="72">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="D32" s="128">
         <f>SUM(D5+D11+D15+D22+D27+D29)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="128"/>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AD$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AD$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -260,9 +260,6 @@
     <t>IP REQ005</t>
   </si>
   <si>
-    <t>Datenübertragung per USB REQ007</t>
-  </si>
-  <si>
     <t>NTH001, NTH002; NTH003 oder Pufferteit</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>Kommunikation im Netz</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1849,9 +1849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2322,16 +2319,16 @@
                   <c:v>42727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>42741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>42747</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>42751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,11 +2405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129009664"/>
-        <c:axId val="129010056"/>
+        <c:axId val="158985600"/>
+        <c:axId val="158985992"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="129009664"/>
+        <c:axId val="158985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,14 +2419,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129010056"/>
+        <c:crossAx val="158985992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129010056"/>
+        <c:axId val="158985992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129009664"/>
+        <c:crossAx val="158985600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2537,7 +2534,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
@@ -2546,7 +2543,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,19 +2602,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2640,11 +2637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129010840"/>
-        <c:axId val="129011232"/>
+        <c:axId val="158986776"/>
+        <c:axId val="241191328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129010840"/>
+        <c:axId val="158986776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129011232"/>
+        <c:crossAx val="241191328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2662,7 +2659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129011232"/>
+        <c:axId val="241191328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129010840"/>
+        <c:crossAx val="158986776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3113,13 +3110,13 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3139,38 +3136,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
+      <c r="A1" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
     </row>
     <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -3185,12 +3182,12 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="182" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="182"/>
+      <c r="D3" s="181"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="26"/>
@@ -3198,21 +3195,21 @@
       <c r="I3" s="26"/>
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
-      <c r="L3" s="174"/>
+      <c r="L3" s="173"/>
       <c r="M3" s="26"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
       <c r="S3" s="26"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
       <c r="Y3" s="26"/>
-      <c r="Z3" s="175"/>
+      <c r="Z3" s="174"/>
       <c r="AA3" s="26"/>
       <c r="AB3" s="26"/>
       <c r="AC3" s="26"/>
@@ -3223,10 +3220,10 @@
       <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
@@ -3239,111 +3236,119 @@
       <c r="F4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="137" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="139" t="s">
+      <c r="J4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="146">
+      <c r="K4" s="145">
         <v>42702</v>
       </c>
-      <c r="L4" s="147">
+      <c r="L4" s="146">
         <v>42705</v>
       </c>
-      <c r="M4" s="149">
+      <c r="M4" s="148">
         <f>L4+1</f>
         <v>42706</v>
       </c>
-      <c r="N4" s="150">
+      <c r="N4" s="149">
         <v>42709</v>
       </c>
-      <c r="O4" s="150">
+      <c r="O4" s="149">
         <v>42712</v>
       </c>
-      <c r="P4" s="151">
+      <c r="P4" s="150">
         <v>42713</v>
       </c>
-      <c r="Q4" s="146">
+      <c r="Q4" s="145">
         <v>42716</v>
       </c>
-      <c r="R4" s="147">
+      <c r="R4" s="146">
         <v>42719</v>
       </c>
-      <c r="S4" s="146">
+      <c r="S4" s="145">
         <v>42720</v>
       </c>
-      <c r="T4" s="152">
+      <c r="T4" s="151">
         <v>42723</v>
       </c>
-      <c r="U4" s="152">
+      <c r="U4" s="151">
         <v>42726</v>
       </c>
-      <c r="V4" s="147">
+      <c r="V4" s="146">
         <v>42727</v>
       </c>
-      <c r="W4" s="32"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="34"/>
+      <c r="W4" s="32">
+        <v>42740</v>
+      </c>
+      <c r="X4" s="124">
+        <v>42741</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>42747</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>42751</v>
+      </c>
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
-      <c r="AD4" s="88"/>
+      <c r="AD4" s="87"/>
     </row>
     <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109">
+      <c r="A5" s="108">
         <v>10</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="111">
         <f>SUM(C6:C10)</f>
         <v>12</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="112">
         <f>SUM(D6:D10)</f>
-        <v>13</v>
-      </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="145"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="122"/>
+        <v>14</v>
+      </c>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="121"/>
     </row>
     <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85">
+      <c r="A6" s="84">
         <v>11</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="88" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="37">
@@ -3359,40 +3364,40 @@
       <c r="G6" s="73"/>
       <c r="H6" s="39"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="176"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="175"/>
       <c r="L6" s="42"/>
       <c r="M6" s="43"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="153"/>
+      <c r="O6" s="152"/>
       <c r="P6" s="45"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="74"/>
       <c r="S6" s="41"/>
-      <c r="T6" s="165"/>
+      <c r="T6" s="164"/>
       <c r="U6" s="37"/>
       <c r="V6" s="74"/>
-      <c r="W6" s="126"/>
+      <c r="W6" s="125"/>
       <c r="X6" s="42"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="46"/>
       <c r="AA6" s="44"/>
       <c r="AB6" s="44"/>
       <c r="AC6" s="44"/>
-      <c r="AD6" s="90"/>
+      <c r="AD6" s="89"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85">
+      <c r="A7" s="84">
         <v>12</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="90" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="48">
         <v>4</v>
       </c>
       <c r="D7" s="38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="47">
         <v>1</v>
@@ -3401,33 +3406,33 @@
       <c r="G7" s="73"/>
       <c r="H7" s="39"/>
       <c r="I7" s="40"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="153"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="152"/>
       <c r="M7" s="51"/>
       <c r="N7" s="50"/>
-      <c r="O7" s="153"/>
+      <c r="O7" s="152"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="49"/>
       <c r="R7" s="74"/>
       <c r="S7" s="49"/>
-      <c r="T7" s="166"/>
+      <c r="T7" s="165"/>
       <c r="U7" s="48"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="126"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="125"/>
       <c r="X7" s="50"/>
       <c r="Y7" s="54"/>
       <c r="Z7" s="55"/>
       <c r="AA7" s="52"/>
       <c r="AB7" s="52"/>
       <c r="AC7" s="52"/>
-      <c r="AD7" s="92"/>
+      <c r="AD7" s="91"/>
     </row>
     <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85">
+      <c r="A8" s="84">
         <v>13</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="90" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="48">
@@ -3443,36 +3448,36 @@
       <c r="G8" s="73"/>
       <c r="H8" s="39"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="176"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="175"/>
       <c r="L8" s="74"/>
       <c r="M8" s="51"/>
       <c r="N8" s="50"/>
-      <c r="O8" s="153"/>
+      <c r="O8" s="152"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="49"/>
       <c r="R8" s="74"/>
       <c r="S8" s="49"/>
-      <c r="T8" s="166"/>
+      <c r="T8" s="165"/>
       <c r="U8" s="48"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="126"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="125"/>
       <c r="X8" s="50"/>
       <c r="Y8" s="54"/>
       <c r="Z8" s="55"/>
       <c r="AA8" s="52"/>
       <c r="AB8" s="52"/>
       <c r="AC8" s="38"/>
-      <c r="AD8" s="93"/>
+      <c r="AD8" s="92"/>
       <c r="AF8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85">
+      <c r="A9" s="84">
         <v>14</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="93" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="48">
@@ -3488,33 +3493,33 @@
       <c r="G9" s="73"/>
       <c r="H9" s="39"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="103"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="43"/>
-      <c r="L9" s="176"/>
+      <c r="L9" s="175"/>
       <c r="M9" s="51"/>
       <c r="N9" s="50"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="176"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="175"/>
       <c r="Q9" s="49"/>
-      <c r="R9" s="176"/>
+      <c r="R9" s="175"/>
       <c r="S9" s="49"/>
-      <c r="T9" s="166"/>
+      <c r="T9" s="165"/>
       <c r="U9" s="48"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="126"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="125"/>
       <c r="X9" s="50"/>
       <c r="Y9" s="57"/>
       <c r="Z9" s="51"/>
       <c r="AA9" s="52"/>
       <c r="AB9" s="52"/>
       <c r="AC9" s="38"/>
-      <c r="AD9" s="93"/>
+      <c r="AD9" s="92"/>
     </row>
     <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+      <c r="A10" s="84">
         <v>15</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="93" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="59">
@@ -3530,75 +3535,75 @@
       <c r="G10" s="57"/>
       <c r="H10" s="54"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="103"/>
+      <c r="J10" s="102"/>
       <c r="K10" s="43"/>
       <c r="L10" s="74"/>
       <c r="M10" s="63"/>
       <c r="N10" s="61"/>
-      <c r="O10" s="154"/>
+      <c r="O10" s="153"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="60"/>
-      <c r="R10" s="107"/>
+      <c r="R10" s="106"/>
       <c r="S10" s="60"/>
-      <c r="T10" s="167"/>
+      <c r="T10" s="166"/>
       <c r="U10" s="59"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="81"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="80"/>
       <c r="X10" s="61"/>
       <c r="Y10" s="66"/>
       <c r="Z10" s="67"/>
       <c r="AA10" s="64"/>
       <c r="AB10" s="64"/>
       <c r="AC10" s="68"/>
-      <c r="AD10" s="93"/>
+      <c r="AD10" s="92"/>
     </row>
     <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109">
+      <c r="A11" s="108">
         <v>16</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="123">
+      <c r="C11" s="122">
         <f>SUM(C12:C14)</f>
         <v>5</v>
       </c>
-      <c r="D11" s="112">
+      <c r="D11" s="111">
         <f>SUM(D12:D14)</f>
         <v>10</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="122"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="121"/>
     </row>
     <row r="12" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+      <c r="A12" s="84">
         <v>17</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="37">
@@ -3614,12 +3619,12 @@
       <c r="G12" s="73"/>
       <c r="H12" s="39"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
       <c r="M12" s="51"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="153"/>
+      <c r="O12" s="152"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="74"/>
@@ -3627,20 +3632,20 @@
       <c r="T12" s="72"/>
       <c r="U12" s="37"/>
       <c r="V12" s="74"/>
-      <c r="W12" s="126"/>
+      <c r="W12" s="125"/>
       <c r="X12" s="42"/>
       <c r="Y12" s="73"/>
       <c r="Z12" s="46"/>
       <c r="AA12" s="44"/>
       <c r="AB12" s="44"/>
       <c r="AC12" s="72"/>
-      <c r="AD12" s="95"/>
+      <c r="AD12" s="94"/>
     </row>
     <row r="13" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85">
+      <c r="A13" s="84">
         <v>18</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="88" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="37">
@@ -3656,12 +3661,12 @@
       <c r="G13" s="73"/>
       <c r="H13" s="39"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="176"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="175"/>
       <c r="L13" s="74"/>
       <c r="M13" s="51"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="153"/>
+      <c r="O13" s="152"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="74"/>
@@ -3669,20 +3674,20 @@
       <c r="T13" s="72"/>
       <c r="U13" s="37"/>
       <c r="V13" s="74"/>
-      <c r="W13" s="126"/>
+      <c r="W13" s="125"/>
       <c r="X13" s="42"/>
       <c r="Y13" s="73"/>
       <c r="Z13" s="46"/>
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
       <c r="AC13" s="72"/>
-      <c r="AD13" s="95"/>
+      <c r="AD13" s="94"/>
     </row>
     <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="84">
         <v>19</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="37"/>
       <c r="D14" s="72" t="str">
         <f t="shared" ref="D14" si="0">IF(SUM(K14:AD14)=0," ",SUM(K14:AD14))</f>
@@ -3693,12 +3698,12 @@
       <c r="G14" s="73"/>
       <c r="H14" s="39"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="103"/>
+      <c r="J14" s="102"/>
       <c r="K14" s="41"/>
       <c r="L14" s="74"/>
       <c r="M14" s="51"/>
       <c r="N14" s="42"/>
-      <c r="O14" s="153"/>
+      <c r="O14" s="152"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="74"/>
@@ -3706,66 +3711,66 @@
       <c r="T14" s="72"/>
       <c r="U14" s="37"/>
       <c r="V14" s="74"/>
-      <c r="W14" s="126"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="42"/>
       <c r="Y14" s="73"/>
       <c r="Z14" s="46"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>
       <c r="AC14" s="72"/>
-      <c r="AD14" s="95"/>
+      <c r="AD14" s="94"/>
     </row>
     <row r="15" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109">
+      <c r="A15" s="108">
         <v>20</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="112">
-        <f>SUM(C16:C21)</f>
-        <v>56</v>
-      </c>
-      <c r="D15" s="113">
-        <f>SUM(D16:D21)</f>
-        <v>46</v>
-      </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="122"/>
+      <c r="C15" s="111">
+        <f>SUM(C16:C20)</f>
+        <v>50</v>
+      </c>
+      <c r="D15" s="112">
+        <f>SUM(D16:D20)</f>
+        <v>51</v>
+      </c>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="121"/>
     </row>
     <row r="16" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+      <c r="A16" s="84">
         <v>21</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="95" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="37">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="72">
         <v>20</v>
@@ -3777,40 +3782,40 @@
       <c r="G16" s="73"/>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="157"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="156"/>
       <c r="L16" s="74"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="176"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="175"/>
       <c r="S16" s="41"/>
-      <c r="T16" s="165"/>
+      <c r="T16" s="164"/>
       <c r="U16" s="73"/>
       <c r="V16" s="74"/>
-      <c r="W16" s="126"/>
+      <c r="W16" s="125"/>
       <c r="X16" s="42"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="46"/>
       <c r="AA16" s="44"/>
       <c r="AB16" s="44"/>
       <c r="AC16" s="72"/>
-      <c r="AD16" s="95"/>
+      <c r="AD16" s="94"/>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85">
+      <c r="A17" s="84">
         <v>22</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="95" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="37">
         <v>8</v>
       </c>
       <c r="D17" s="72">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="36">
         <v>1</v>
@@ -3819,33 +3824,33 @@
       <c r="G17" s="73"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="157"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="156"/>
       <c r="L17" s="74"/>
-      <c r="M17" s="176"/>
+      <c r="M17" s="175"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="153"/>
+      <c r="O17" s="152"/>
       <c r="P17" s="45"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
       <c r="S17" s="41"/>
-      <c r="T17" s="165"/>
+      <c r="T17" s="164"/>
       <c r="U17" s="73"/>
       <c r="V17" s="74"/>
-      <c r="W17" s="126"/>
+      <c r="W17" s="125"/>
       <c r="X17" s="42"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="46"/>
       <c r="AA17" s="44"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="72"/>
-      <c r="AD17" s="95"/>
+      <c r="AD17" s="94"/>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+      <c r="A18" s="84">
         <v>23</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="95" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="37">
@@ -3861,73 +3866,73 @@
       <c r="G18" s="73"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="157"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="156"/>
       <c r="L18" s="74"/>
       <c r="M18" s="43"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="159"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="158"/>
       <c r="S18" s="73"/>
       <c r="T18" s="73"/>
       <c r="U18" s="73"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="126"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="125"/>
       <c r="X18" s="42"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="46"/>
       <c r="AA18" s="44"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="72"/>
-      <c r="AD18" s="95"/>
+      <c r="AD18" s="94"/>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85">
+      <c r="A19" s="84">
         <v>24</v>
       </c>
-      <c r="B19" s="96" t="s">
-        <v>44</v>
+      <c r="B19" s="95" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="37">
         <v>16</v>
       </c>
       <c r="D19" s="72">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
       <c r="G19" s="73"/>
       <c r="H19" s="39"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="157"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="156"/>
       <c r="L19" s="74"/>
       <c r="M19" s="43"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="153"/>
+      <c r="O19" s="152"/>
       <c r="P19" s="42"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="176"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="175"/>
       <c r="S19" s="73"/>
       <c r="T19" s="73"/>
       <c r="U19" s="73"/>
-      <c r="V19" s="177"/>
-      <c r="W19" s="126"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="125"/>
       <c r="X19" s="42"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="46"/>
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="72"/>
-      <c r="AD19" s="95"/>
+      <c r="AD19" s="94"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85">
+      <c r="A20" s="84">
         <v>25</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="95" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="37">
@@ -3943,125 +3948,124 @@
       <c r="G20" s="73"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="157"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="156"/>
       <c r="L20" s="74"/>
       <c r="M20" s="43"/>
       <c r="N20" s="42"/>
-      <c r="O20" s="153"/>
+      <c r="O20" s="152"/>
       <c r="P20" s="45"/>
-      <c r="Q20" s="176"/>
+      <c r="Q20" s="175"/>
       <c r="R20" s="74"/>
       <c r="S20" s="73"/>
       <c r="T20" s="73"/>
       <c r="U20" s="73"/>
-      <c r="V20" s="177"/>
-      <c r="W20" s="126"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="125"/>
       <c r="X20" s="42"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="46"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="72"/>
-      <c r="AD20" s="95"/>
+      <c r="AD20" s="94"/>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85">
+      <c r="A21" s="108">
         <v>26</v>
       </c>
-      <c r="B21" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="48">
+      <c r="B21" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="111">
+        <f>SUM(C22:C25)</f>
+        <v>15</v>
+      </c>
+      <c r="D21" s="112">
+        <f>SUM(D22:D25)</f>
+        <v>9</v>
+      </c>
+      <c r="E21" s="118"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="121"/>
+    </row>
+    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="84">
+        <v>27</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="37">
         <v>2</v>
       </c>
-      <c r="D21" s="38" t="str">
-        <f>IF(SUM(K21:AD21)=0," ",SUM(K21:AD21))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E21" s="47">
+      <c r="D22" s="72">
         <v>1</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="176"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="93"/>
-    </row>
-    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109">
-        <v>27</v>
-      </c>
-      <c r="B22" s="110" t="s">
+      <c r="E22" s="36">
+        <v>1</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="175"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="97"/>
+    </row>
+    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
+        <v>28</v>
+      </c>
+      <c r="B23" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="112">
-        <f>SUM(C23:C26)</f>
-        <v>15</v>
-      </c>
-      <c r="D22" s="113">
-        <f>SUM(D23:D26)</f>
-        <v>9</v>
-      </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="119"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="122"/>
-    </row>
-    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85">
-        <v>28</v>
-      </c>
-      <c r="B23" s="97" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23" s="72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="36">
         <v>1</v>
@@ -4070,465 +4074,458 @@
       <c r="G23" s="73"/>
       <c r="H23" s="39"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="157"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="156"/>
       <c r="L23" s="74"/>
       <c r="M23" s="43"/>
       <c r="N23" s="42"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="176"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="175"/>
       <c r="Q23" s="41"/>
-      <c r="R23" s="176"/>
+      <c r="R23" s="175"/>
       <c r="S23" s="41"/>
-      <c r="T23" s="165"/>
+      <c r="T23" s="164"/>
       <c r="U23" s="73"/>
-      <c r="V23" s="176"/>
-      <c r="W23" s="126"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="125"/>
       <c r="X23" s="42"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="46"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
       <c r="AD23" s="98"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85">
+      <c r="A24" s="84">
         <v>29</v>
       </c>
-      <c r="B24" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="37">
+      <c r="B24" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="69">
         <v>6</v>
       </c>
       <c r="D24" s="72">
-        <v>5</v>
-      </c>
-      <c r="E24" s="36">
+        <v>3</v>
+      </c>
+      <c r="E24" s="75">
         <v>1</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="39"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="104"/>
+      <c r="J24" s="103"/>
       <c r="K24" s="157"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="42"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="153"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="176"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="176"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="99"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="167"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="91"/>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85">
+      <c r="A25" s="84">
         <v>30</v>
       </c>
-      <c r="B25" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="69">
-        <v>6</v>
-      </c>
-      <c r="D25" s="72">
-        <v>3</v>
-      </c>
-      <c r="E25" s="76">
+      <c r="B25" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="59">
         <v>1</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="54"/>
+      <c r="D25" s="68" t="str">
+        <f>IF(SUM(K25:AD25)=0," ",SUM(K25:AD25))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E25" s="58">
+        <v>2</v>
+      </c>
+      <c r="F25" s="69"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="40"/>
       <c r="J25" s="104"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="164"/>
-      <c r="T25" s="168"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="176"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="92"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="169"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="100"/>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+      <c r="A26" s="108">
         <v>31</v>
       </c>
-      <c r="B26" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="59">
+      <c r="B26" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="111">
+        <f>SUM(C27)</f>
+        <v>9</v>
+      </c>
+      <c r="D26" s="112">
+        <f>SUM(D27)</f>
         <v>1</v>
       </c>
-      <c r="D26" s="68" t="str">
-        <f>IF(SUM(K26:AD26)=0," ",SUM(K26:AD26))</f>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="121"/>
+    </row>
+    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
+        <v>32</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="69">
+        <v>9</v>
+      </c>
+      <c r="D27" s="78">
+        <v>1</v>
+      </c>
+      <c r="E27" s="75">
+        <v>2</v>
+      </c>
+      <c r="F27" s="69"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="167"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="91"/>
+    </row>
+    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="108">
+        <v>33</v>
+      </c>
+      <c r="B28" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="111">
+        <f>SUM(C29:C30)</f>
+        <v>7</v>
+      </c>
+      <c r="D28" s="112">
+        <f>SUM(D29:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="115"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="119"/>
+      <c r="Y28" s="115"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="119"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="121"/>
+    </row>
+    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="84">
+        <v>34</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="72" t="str">
+        <f>IF(SUM(K29:AD29)=0," ",SUM(K29:AD29))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="58">
+      <c r="E29" s="36">
         <v>2</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="176"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="167"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="176"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="101"/>
-    </row>
-    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109">
-        <v>32</v>
-      </c>
-      <c r="B27" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="112">
-        <f>SUM(C28)</f>
-        <v>9</v>
-      </c>
-      <c r="D27" s="113">
-        <f>SUM(D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="116"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="122"/>
-    </row>
-    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
-        <v>33</v>
-      </c>
-      <c r="B28" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="69">
-        <v>9</v>
-      </c>
-      <c r="D28" s="79" t="str">
-        <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E28" s="76">
-        <v>2</v>
-      </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="164"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="164"/>
-      <c r="T28" s="168"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="70"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="92"/>
-    </row>
-    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="109">
-        <v>34</v>
-      </c>
-      <c r="B29" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="112">
-        <f>SUM(C30:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="113">
-        <f>SUM(D30:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="118"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="107"/>
       <c r="K29" s="156"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="119"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="120"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="122"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="164"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="98"/>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85">
+      <c r="A30" s="84">
         <v>35</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="72" t="str">
+        <v>44</v>
+      </c>
+      <c r="C30" s="48">
+        <v>7</v>
+      </c>
+      <c r="D30" s="38" t="str">
         <f>IF(SUM(K30:AD30)=0," ",SUM(K30:AD30))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="36">
-        <v>2</v>
-      </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="39"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="108"/>
+      <c r="J30" s="105"/>
       <c r="K30" s="157"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="41"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="49"/>
       <c r="R30" s="74"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="165"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="126"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="99"/>
-    </row>
-    <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="85">
-        <v>36</v>
-      </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="38" t="str">
-        <f>IF(SUM(K31:AD31)=0," ",SUM(K31:AD31))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="99"/>
-    </row>
-    <row r="32" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109">
+      <c r="S30" s="170"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="172"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="175"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="98"/>
+    </row>
+    <row r="31" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="108">
         <v>37</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B31" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="128">
-        <f>SUM(C5+C11+C15+C22+C27)</f>
-        <v>97</v>
-      </c>
-      <c r="D32" s="128">
-        <f>SUM(D5+D11+D15+D22+D27+D29)</f>
-        <v>78</v>
-      </c>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="132">
-        <f>SUM(K5:K31)</f>
+      <c r="C31" s="127">
+        <f>SUM(C5+C11+C15+C21+C26+C28)</f>
+        <v>98</v>
+      </c>
+      <c r="D31" s="127">
+        <f>SUM(D5+D11+D15+D21+D26+D28)</f>
+        <v>85</v>
+      </c>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="131">
+        <f>SUM(K5:K30)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="128">
-        <f>SUM(L5:L31)</f>
+      <c r="L31" s="127">
+        <f>SUM(L5:L30)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="132">
-        <f>SUM(M5:M31)</f>
+      <c r="M31" s="131">
+        <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="132">
-        <f>SUM(N5:N31)</f>
+      <c r="N31" s="131">
+        <f>SUM(N5:N30)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="169">
-        <f>SUM(O5:O31)</f>
+      <c r="O31" s="168">
+        <f>SUM(O5:O30)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="169"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="133"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="132"/>
+    </row>
+    <row r="32" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="A33" s="133"/>
+      <c r="B33" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="179"/>
+      <c r="N33" s="179"/>
+      <c r="O33" s="179"/>
+      <c r="P33" s="179"/>
+      <c r="Q33" s="179"/>
+      <c r="R33" s="179"/>
+      <c r="S33" s="179"/>
+      <c r="T33" s="179"/>
+      <c r="U33" s="179"/>
+      <c r="V33" s="179"/>
+      <c r="W33" s="179"/>
+      <c r="X33" s="179"/>
+      <c r="Y33" s="179"/>
+      <c r="Z33" s="179"/>
+      <c r="AA33" s="179"/>
+      <c r="AB33" s="179"/>
+      <c r="AC33" s="179"/>
+      <c r="AD33" s="179"/>
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="134"/>
-      <c r="B34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="179"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="180"/>
-      <c r="P34" s="180"/>
-      <c r="Q34" s="180"/>
-      <c r="R34" s="180"/>
-      <c r="S34" s="180"/>
-      <c r="T34" s="180"/>
-      <c r="U34" s="180"/>
-      <c r="V34" s="180"/>
-      <c r="W34" s="180"/>
-      <c r="X34" s="180"/>
-      <c r="Y34" s="180"/>
-      <c r="Z34" s="180"/>
-      <c r="AA34" s="180"/>
-      <c r="AB34" s="180"/>
-      <c r="AC34" s="180"/>
-      <c r="AD34" s="180"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="177"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="135"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="14"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
@@ -4538,87 +4535,55 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="178"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="178"/>
-      <c r="O35" s="178"/>
-      <c r="P35" s="178"/>
-      <c r="Q35" s="178"/>
-      <c r="R35" s="178"/>
-      <c r="S35" s="178"/>
-      <c r="T35" s="178"/>
-      <c r="U35" s="178"/>
-      <c r="V35" s="178"/>
-      <c r="W35" s="178"/>
-      <c r="X35" s="178"/>
-      <c r="Y35" s="178"/>
-      <c r="Z35" s="178"/>
-      <c r="AA35" s="178"/>
-      <c r="AB35" s="178"/>
-      <c r="AC35" s="178"/>
-      <c r="AD35" s="178"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="177"/>
+      <c r="Z35" s="177"/>
+      <c r="AA35" s="177"/>
+      <c r="AB35" s="177"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="177"/>
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="178"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
-      <c r="S36" s="178"/>
-      <c r="T36" s="178"/>
-      <c r="U36" s="178"/>
-      <c r="V36" s="178"/>
-      <c r="W36" s="178"/>
-      <c r="X36" s="178"/>
-      <c r="Y36" s="178"/>
-      <c r="Z36" s="178"/>
-      <c r="AA36" s="178"/>
-      <c r="AB36" s="178"/>
-      <c r="AC36" s="178"/>
-      <c r="AD36" s="178"/>
+      <c r="B36" s="18"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="18"/>
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J42" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K35:AD36"/>
-    <mergeCell ref="K34:AD34"/>
+    <mergeCell ref="K34:AD35"/>
+    <mergeCell ref="K33:AD33"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
@@ -4655,21 +4620,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="185"/>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
+      <c r="A1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4708,7 +4673,7 @@
         <v>42702</v>
       </c>
       <c r="C4" s="5">
-        <f>'IPA Zeitplanung'!K32</f>
+        <f>'IPA Zeitplanung'!K31</f>
         <v>0</v>
       </c>
     </row>
@@ -4721,7 +4686,7 @@
         <v>42705</v>
       </c>
       <c r="C5" s="5">
-        <f>'IPA Zeitplanung'!L32</f>
+        <f>'IPA Zeitplanung'!L31</f>
         <v>0</v>
       </c>
     </row>
@@ -4734,7 +4699,7 @@
         <v>42706</v>
       </c>
       <c r="C6" s="5">
-        <f>'IPA Zeitplanung'!M32</f>
+        <f>'IPA Zeitplanung'!M31</f>
         <v>0</v>
       </c>
     </row>
@@ -4747,7 +4712,7 @@
         <v>42709</v>
       </c>
       <c r="C7" s="5">
-        <f>'IPA Zeitplanung'!N32</f>
+        <f>'IPA Zeitplanung'!N31</f>
         <v>0</v>
       </c>
     </row>
@@ -4760,7 +4725,7 @@
         <v>42712</v>
       </c>
       <c r="C8" s="5">
-        <f>'IPA Zeitplanung'!O32</f>
+        <f>'IPA Zeitplanung'!O31</f>
         <v>0</v>
       </c>
     </row>
@@ -4773,7 +4738,7 @@
         <v>42713</v>
       </c>
       <c r="C9" s="5">
-        <f>'IPA Zeitplanung'!P32</f>
+        <f>'IPA Zeitplanung'!P31</f>
         <v>0</v>
       </c>
     </row>
@@ -4786,7 +4751,7 @@
         <v>42716</v>
       </c>
       <c r="C10" s="5">
-        <f>'IPA Zeitplanung'!Q32</f>
+        <f>'IPA Zeitplanung'!Q31</f>
         <v>0</v>
       </c>
     </row>
@@ -4799,7 +4764,7 @@
         <v>42720</v>
       </c>
       <c r="C11" s="5">
-        <f>'IPA Zeitplanung'!R32</f>
+        <f>'IPA Zeitplanung'!R31</f>
         <v>0</v>
       </c>
     </row>
@@ -4812,7 +4777,7 @@
         <v>#REF!</v>
       </c>
       <c r="C12" s="5">
-        <f>'IPA Zeitplanung'!S32</f>
+        <f>'IPA Zeitplanung'!S31</f>
         <v>0</v>
       </c>
     </row>
@@ -4825,7 +4790,7 @@
         <v>42723</v>
       </c>
       <c r="C13" s="5">
-        <f>'IPA Zeitplanung'!T32</f>
+        <f>'IPA Zeitplanung'!T31</f>
         <v>0</v>
       </c>
     </row>
@@ -4838,7 +4803,7 @@
         <v>42726</v>
       </c>
       <c r="C14" s="5">
-        <f>'IPA Zeitplanung'!U32</f>
+        <f>'IPA Zeitplanung'!U31</f>
         <v>0</v>
       </c>
     </row>
@@ -4851,7 +4816,7 @@
         <v>42727</v>
       </c>
       <c r="C15" s="5">
-        <f>'IPA Zeitplanung'!V32</f>
+        <f>'IPA Zeitplanung'!V31</f>
         <v>0</v>
       </c>
     </row>
@@ -4861,10 +4826,10 @@
       </c>
       <c r="B16" s="7">
         <f>'IPA Zeitplanung'!W$4</f>
-        <v>0</v>
+        <v>42740</v>
       </c>
       <c r="C16" s="5">
-        <f>'IPA Zeitplanung'!W32</f>
+        <f>'IPA Zeitplanung'!W31</f>
         <v>0</v>
       </c>
     </row>
@@ -4874,10 +4839,10 @@
       </c>
       <c r="B17" s="7">
         <f>'IPA Zeitplanung'!X$4</f>
-        <v>0</v>
+        <v>42741</v>
       </c>
       <c r="C17" s="5">
-        <f>'IPA Zeitplanung'!X32</f>
+        <f>'IPA Zeitplanung'!X31</f>
         <v>0</v>
       </c>
     </row>
@@ -4887,10 +4852,10 @@
       </c>
       <c r="B18" s="7">
         <f>'IPA Zeitplanung'!Y$4</f>
-        <v>0</v>
+        <v>42747</v>
       </c>
       <c r="C18" s="5">
-        <f>'IPA Zeitplanung'!Y32</f>
+        <f>'IPA Zeitplanung'!Y31</f>
         <v>0</v>
       </c>
     </row>
@@ -4900,10 +4865,10 @@
       </c>
       <c r="B19" s="7">
         <f>'IPA Zeitplanung'!Z$4</f>
-        <v>0</v>
+        <v>42751</v>
       </c>
       <c r="C19" s="5">
-        <f>'IPA Zeitplanung'!Z32</f>
+        <f>'IPA Zeitplanung'!Z31</f>
         <v>0</v>
       </c>
     </row>
@@ -4916,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <f>'IPA Zeitplanung'!AA32</f>
+        <f>'IPA Zeitplanung'!AA31</f>
         <v>0</v>
       </c>
     </row>
@@ -4929,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="5">
-        <f>'IPA Zeitplanung'!AB32</f>
+        <f>'IPA Zeitplanung'!AB31</f>
         <v>0</v>
       </c>
     </row>
@@ -4942,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="5">
-        <f>'IPA Zeitplanung'!AC32</f>
+        <f>'IPA Zeitplanung'!AC31</f>
         <v>0</v>
       </c>
     </row>
@@ -4955,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="5">
-        <f>'IPA Zeitplanung'!AD32</f>
+        <f>'IPA Zeitplanung'!AD31</f>
         <v>0</v>
       </c>
     </row>
@@ -4975,10 +4940,10 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="186" t="s">
+      <c r="A27" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="187"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
@@ -4987,24 +4952,24 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="184"/>
+      <c r="B28" s="183"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>12</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="189"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>5</v>
@@ -5015,58 +4980,58 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="184"/>
+      <c r="B30" s="183"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="189"/>
+      <c r="B31" s="188"/>
       <c r="C31" s="5">
-        <f>'IPA Zeitplanung'!C22</f>
+        <f>'IPA Zeitplanung'!C21</f>
         <v>15</v>
       </c>
       <c r="D31" s="5">
-        <f>'IPA Zeitplanung'!D22</f>
+        <f>'IPA Zeitplanung'!D21</f>
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="184"/>
+      <c r="B32" s="183"/>
       <c r="C32" s="5">
-        <f>'IPA Zeitplanung'!C27</f>
+        <f>'IPA Zeitplanung'!C26</f>
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <f>SUM('IPA Zeitplanung'!D27)</f>
-        <v>0</v>
+        <f>SUM('IPA Zeitplanung'!D26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="183" t="s">
+      <c r="A33" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="184"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="5">
-        <f>'IPA Zeitplanung'!C29</f>
-        <v>0</v>
+        <f>'IPA Zeitplanung'!C28</f>
+        <v>7</v>
       </c>
       <c r="D33" s="5">
-        <f>'IPA Zeitplanung'!D29</f>
+        <f>'IPA Zeitplanung'!D28</f>
         <v>0</v>
       </c>
     </row>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPA Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2405,11 +2405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158985600"/>
-        <c:axId val="158985992"/>
+        <c:axId val="159415952"/>
+        <c:axId val="159415560"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="158985600"/>
+        <c:axId val="159415952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,14 +2419,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158985992"/>
+        <c:crossAx val="159415560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158985992"/>
+        <c:axId val="159415560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158985600"/>
+        <c:crossAx val="159415952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2637,11 +2637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158986776"/>
-        <c:axId val="241191328"/>
+        <c:axId val="159415168"/>
+        <c:axId val="159418304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158986776"/>
+        <c:axId val="159415168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241191328"/>
+        <c:crossAx val="159418304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2659,7 +2659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241191328"/>
+        <c:axId val="159418304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158986776"/>
+        <c:crossAx val="159415168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3112,11 +3112,11 @@
   </sheetPr>
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4606,7 +4606,7 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -2405,11 +2405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159415952"/>
-        <c:axId val="159415560"/>
+        <c:axId val="162411056"/>
+        <c:axId val="391546392"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="159415952"/>
+        <c:axId val="162411056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,14 +2419,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159415560"/>
+        <c:crossAx val="391546392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159415560"/>
+        <c:axId val="391546392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159415952"/>
+        <c:crossAx val="162411056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2537,13 +2537,13 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,7 +2605,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51</c:v>
@@ -2617,7 +2617,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,11 +2637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159415168"/>
-        <c:axId val="159418304"/>
+        <c:axId val="391547176"/>
+        <c:axId val="391547568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159415168"/>
+        <c:axId val="391547176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159418304"/>
+        <c:crossAx val="391547568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2659,7 +2659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159418304"/>
+        <c:axId val="391547568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159415168"/>
+        <c:crossAx val="391547176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3116,7 +3116,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="D11" s="111">
         <f>SUM(D12:D14)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="113"/>
       <c r="F11" s="114"/>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="36">
         <v>1</v>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="C21" s="111">
         <f>SUM(C22:C25)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="112">
         <f>SUM(D22:D25)</f>
@@ -4062,7 +4062,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="72">
         <v>5</v>
@@ -4104,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="72">
         <v>3</v>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="C28" s="111">
         <f>SUM(C29:C30)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="112">
         <f>SUM(D29:D30)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="113"/>
       <c r="F28" s="114"/>
@@ -4356,11 +4356,10 @@
         <v>44</v>
       </c>
       <c r="C30" s="48">
-        <v>7</v>
-      </c>
-      <c r="D30" s="38" t="str">
-        <f>IF(SUM(K30:AD30)=0," ",SUM(K30:AD30))</f>
-        <v xml:space="preserve"> </v>
+        <v>6</v>
+      </c>
+      <c r="D30" s="38">
+        <v>5</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="81"/>
@@ -4398,11 +4397,11 @@
       </c>
       <c r="C31" s="127">
         <f>SUM(C5+C11+C15+C21+C26+C28)</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="127">
         <f>SUM(D5+D11+D15+D21+D26+D28)</f>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E31" s="127"/>
       <c r="F31" s="127"/>
@@ -4976,7 +4975,7 @@
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5000,7 +4999,7 @@
       <c r="B31" s="188"/>
       <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C21</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" s="5">
         <f>'IPA Zeitplanung'!D21</f>
@@ -5028,11 +5027,11 @@
       <c r="B33" s="183"/>
       <c r="C33" s="5">
         <f>'IPA Zeitplanung'!C28</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="5">
         <f>'IPA Zeitplanung'!D28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
